--- a/data/dataset_neuroscience_vo.xlsx
+++ b/data/dataset_neuroscience_vo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MDASILVA\MDASILVA\ESEO\INTERSHIP\BDA\BDA_Project\BDAJupiterNotebook\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC7F0C02-F859-4080-9D95-4354BEECE09F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F73610D-47F9-4ED5-8704-8F50900A11EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{C829A673-F44C-49DE-8E9A-B2FC9AA259F4}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1159" uniqueCount="746">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1159" uniqueCount="745">
   <si>
     <t>animal</t>
   </si>
@@ -2256,9 +2256,6 @@
   </si>
   <si>
     <t>Unknown</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -2654,7 +2651,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -2897,19 +2894,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -2983,7 +2967,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
@@ -2996,32 +2980,31 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="39" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="39" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="41" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="41" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="42" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="42" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="44" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="44" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
@@ -4114,8 +4097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{665CECC1-8FBB-4BDB-A4F2-9DF141040273}">
   <dimension ref="A1:BO317"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E306" sqref="E306"/>
+    <sheetView tabSelected="1" topLeftCell="A307" workbookViewId="0">
+      <selection activeCell="C317" sqref="C317"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4136,393 +4119,393 @@
       <c r="C1" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="L1" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="M1" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="N1" s="19" t="s">
+      <c r="N1" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="O1" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="P1" s="19" t="s">
+      <c r="P1" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="Q1" s="19" t="s">
+      <c r="Q1" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="R1" s="19" t="s">
+      <c r="R1" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="S1" s="20" t="s">
+      <c r="S1" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="T1" s="21" t="s">
+      <c r="T1" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="U1" s="22" t="s">
+      <c r="U1" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="V1" s="22" t="s">
+      <c r="V1" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="W1" s="22" t="s">
+      <c r="W1" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="X1" s="22" t="s">
+      <c r="X1" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="Y1" s="22" t="s">
+      <c r="Y1" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="Z1" s="22" t="s">
+      <c r="Z1" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="AA1" s="23" t="s">
+      <c r="AA1" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="AB1" s="24" t="s">
+      <c r="AB1" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="AC1" s="25" t="s">
+      <c r="AC1" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="AD1" s="25" t="s">
+      <c r="AD1" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="AE1" s="25" t="s">
+      <c r="AE1" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="AF1" s="25" t="s">
+      <c r="AF1" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="AG1" s="25" t="s">
+      <c r="AG1" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="AH1" s="25" t="s">
+      <c r="AH1" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="AI1" s="26" t="s">
+      <c r="AI1" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="AJ1" s="27" t="s">
+      <c r="AJ1" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="AK1" s="28" t="s">
+      <c r="AK1" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="AL1" s="28" t="s">
+      <c r="AL1" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="AM1" s="28" t="s">
+      <c r="AM1" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="AN1" s="28" t="s">
+      <c r="AN1" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="AO1" s="28" t="s">
+      <c r="AO1" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="AP1" s="28" t="s">
+      <c r="AP1" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="AQ1" s="29" t="s">
+      <c r="AQ1" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="AR1" s="30" t="s">
+      <c r="AR1" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="AS1" s="31" t="s">
+      <c r="AS1" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="AT1" s="31" t="s">
+      <c r="AT1" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="AU1" s="31" t="s">
+      <c r="AU1" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="AV1" s="31" t="s">
+      <c r="AV1" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="AW1" s="31" t="s">
+      <c r="AW1" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="AX1" s="31" t="s">
+      <c r="AX1" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="AY1" s="32" t="s">
+      <c r="AY1" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="AZ1" s="33" t="s">
+      <c r="AZ1" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="BA1" s="34" t="s">
+      <c r="BA1" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="BB1" s="34" t="s">
+      <c r="BB1" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="BC1" s="34" t="s">
+      <c r="BC1" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="BD1" s="34" t="s">
+      <c r="BD1" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="BE1" s="34" t="s">
+      <c r="BE1" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="BF1" s="34" t="s">
+      <c r="BF1" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="BG1" s="35" t="s">
+      <c r="BG1" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="BH1" s="36" t="s">
+      <c r="BH1" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="BI1" s="37" t="s">
+      <c r="BI1" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="BJ1" s="37" t="s">
+      <c r="BJ1" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="BK1" s="37" t="s">
+      <c r="BK1" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="BL1" s="37" t="s">
+      <c r="BL1" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="BM1" s="37" t="s">
+      <c r="BM1" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="BN1" s="37" t="s">
+      <c r="BN1" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="BO1" s="38" t="s">
+      <c r="BO1" s="37" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:67" x14ac:dyDescent="0.3">
-      <c r="A2" s="39"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="42" t="s">
+      <c r="A2" s="38"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="42" t="s">
+      <c r="E2" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="42" t="s">
+      <c r="F2" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="42" t="s">
+      <c r="G2" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="42" t="s">
+      <c r="H2" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="42" t="s">
+      <c r="I2" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="42" t="s">
+      <c r="J2" s="41" t="s">
         <v>744</v>
       </c>
-      <c r="K2" s="42" t="s">
+      <c r="K2" s="41" t="s">
         <v>744</v>
       </c>
-      <c r="L2" s="42" t="s">
+      <c r="L2" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="42" t="s">
+      <c r="M2" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="42" t="s">
+      <c r="N2" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="42" t="s">
+      <c r="O2" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="42" t="s">
+      <c r="P2" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="42" t="s">
+      <c r="Q2" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="R2" s="42" t="s">
+      <c r="R2" s="41" t="s">
         <v>744</v>
       </c>
-      <c r="S2" s="42" t="s">
+      <c r="S2" s="41" t="s">
         <v>744</v>
       </c>
-      <c r="T2" s="42" t="s">
+      <c r="T2" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="U2" s="42" t="s">
+      <c r="U2" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="V2" s="42" t="s">
+      <c r="V2" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="W2" s="42" t="s">
+      <c r="W2" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="X2" s="42" t="s">
+      <c r="X2" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="Y2" s="42" t="s">
+      <c r="Y2" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="Z2" s="42" t="s">
+      <c r="Z2" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="AA2" s="42" t="s">
+      <c r="AA2" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="AB2" s="42" t="s">
+      <c r="AB2" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="AC2" s="42" t="s">
+      <c r="AC2" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="AD2" s="42" t="s">
+      <c r="AD2" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="AE2" s="42" t="s">
+      <c r="AE2" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="AF2" s="42" t="s">
+      <c r="AF2" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="AG2" s="42" t="s">
+      <c r="AG2" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="AH2" s="42" t="s">
+      <c r="AH2" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="AI2" s="42" t="s">
+      <c r="AI2" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="AJ2" s="42" t="s">
+      <c r="AJ2" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="AK2" s="42" t="s">
+      <c r="AK2" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="AL2" s="42" t="s">
+      <c r="AL2" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="AM2" s="42" t="s">
+      <c r="AM2" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="AN2" s="42" t="s">
+      <c r="AN2" s="41" t="s">
         <v>744</v>
       </c>
-      <c r="AO2" s="42" t="s">
+      <c r="AO2" s="41" t="s">
         <v>744</v>
       </c>
-      <c r="AP2" s="42" t="s">
+      <c r="AP2" s="41" t="s">
         <v>744</v>
       </c>
-      <c r="AQ2" s="42" t="s">
+      <c r="AQ2" s="41" t="s">
         <v>744</v>
       </c>
-      <c r="AR2" s="42" t="s">
+      <c r="AR2" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="AS2" s="42" t="s">
+      <c r="AS2" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="AT2" s="42" t="s">
+      <c r="AT2" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="AU2" s="42" t="s">
+      <c r="AU2" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="AV2" s="42" t="s">
+      <c r="AV2" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="AW2" s="42" t="s">
+      <c r="AW2" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="AX2" s="42" t="s">
+      <c r="AX2" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="AY2" s="42" t="s">
+      <c r="AY2" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="AZ2" s="42" t="s">
+      <c r="AZ2" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="BA2" s="42" t="s">
+      <c r="BA2" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="BB2" s="42" t="s">
+      <c r="BB2" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="BC2" s="42" t="s">
+      <c r="BC2" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="BD2" s="42" t="s">
+      <c r="BD2" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="BE2" s="42" t="s">
+      <c r="BE2" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="BF2" s="42" t="s">
+      <c r="BF2" s="41" t="s">
         <v>744</v>
       </c>
-      <c r="BG2" s="42" t="s">
+      <c r="BG2" s="41" t="s">
         <v>744</v>
       </c>
-      <c r="BH2" s="42" t="s">
+      <c r="BH2" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="BI2" s="42" t="s">
+      <c r="BI2" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="BJ2" s="42" t="s">
+      <c r="BJ2" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="BK2" s="42" t="s">
+      <c r="BK2" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="BL2" s="42" t="s">
+      <c r="BL2" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="BM2" s="42" t="s">
+      <c r="BM2" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="BN2" s="42" t="s">
+      <c r="BN2" s="41" t="s">
         <v>744</v>
       </c>
-      <c r="BO2" s="42" t="s">
+      <c r="BO2" s="41" t="s">
         <v>744</v>
       </c>
     </row>
@@ -4539,22 +4522,22 @@
       <c r="D3" s="1">
         <v>9574</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="15">
         <v>7781</v>
       </c>
-      <c r="F3" s="16">
+      <c r="F3" s="15">
         <v>17598</v>
       </c>
-      <c r="G3" s="16">
+      <c r="G3" s="15">
         <v>4425</v>
       </c>
-      <c r="H3" s="16">
+      <c r="H3" s="15">
         <v>7428</v>
       </c>
-      <c r="I3" s="16">
+      <c r="I3" s="15">
         <v>8302</v>
       </c>
-      <c r="J3" s="16">
+      <c r="J3" s="15">
         <v>4288</v>
       </c>
       <c r="K3" s="2">
@@ -4563,22 +4546,22 @@
       <c r="L3" s="1">
         <v>2527</v>
       </c>
-      <c r="M3" s="16">
+      <c r="M3" s="15">
         <v>3366</v>
       </c>
-      <c r="N3" s="16">
+      <c r="N3" s="15">
         <v>2431</v>
       </c>
-      <c r="O3" s="16">
+      <c r="O3" s="15">
         <v>15881</v>
       </c>
-      <c r="P3" s="16">
+      <c r="P3" s="15">
         <v>17294</v>
       </c>
-      <c r="Q3" s="16">
+      <c r="Q3" s="15">
         <v>10002</v>
       </c>
-      <c r="R3" s="16">
+      <c r="R3" s="15">
         <v>10655</v>
       </c>
       <c r="S3" s="2">
@@ -4587,22 +4570,22 @@
       <c r="T3" s="1">
         <v>4297</v>
       </c>
-      <c r="U3" s="16">
+      <c r="U3" s="15">
         <v>2320</v>
       </c>
-      <c r="V3" s="16">
+      <c r="V3" s="15">
         <v>1873</v>
       </c>
-      <c r="W3" s="16">
+      <c r="W3" s="15">
         <v>3262</v>
       </c>
-      <c r="X3" s="16">
+      <c r="X3" s="15">
         <v>2331</v>
       </c>
-      <c r="Y3" s="16">
+      <c r="Y3" s="15">
         <v>1737</v>
       </c>
-      <c r="Z3" s="16">
+      <c r="Z3" s="15">
         <v>6635</v>
       </c>
       <c r="AA3" s="2">
@@ -4611,22 +4594,22 @@
       <c r="AB3" s="1">
         <v>775</v>
       </c>
-      <c r="AC3" s="16">
+      <c r="AC3" s="15">
         <v>1302</v>
       </c>
-      <c r="AD3" s="16">
+      <c r="AD3" s="15">
         <v>833</v>
       </c>
-      <c r="AE3" s="16">
+      <c r="AE3" s="15">
         <v>1647</v>
       </c>
-      <c r="AF3" s="16">
+      <c r="AF3" s="15">
         <v>1570</v>
       </c>
-      <c r="AG3" s="16">
+      <c r="AG3" s="15">
         <v>1614</v>
       </c>
-      <c r="AH3" s="16">
+      <c r="AH3" s="15">
         <v>896</v>
       </c>
       <c r="AI3" s="2">
@@ -4635,22 +4618,22 @@
       <c r="AJ3" s="1">
         <v>2831</v>
       </c>
-      <c r="AK3" s="16">
+      <c r="AK3" s="15">
         <v>9015</v>
       </c>
-      <c r="AL3" s="16">
+      <c r="AL3" s="15">
         <v>1917</v>
       </c>
-      <c r="AM3" s="16">
+      <c r="AM3" s="15">
         <v>9439</v>
       </c>
-      <c r="AN3" s="16">
+      <c r="AN3" s="15">
         <v>7207</v>
       </c>
-      <c r="AO3" s="16">
+      <c r="AO3" s="15">
         <v>11913</v>
       </c>
-      <c r="AP3" s="16">
+      <c r="AP3" s="15">
         <v>5499</v>
       </c>
       <c r="AQ3" s="2">
@@ -4659,22 +4642,22 @@
       <c r="AR3" s="1">
         <v>14101</v>
       </c>
-      <c r="AS3" s="16">
+      <c r="AS3" s="15">
         <v>14080</v>
       </c>
-      <c r="AT3" s="16">
+      <c r="AT3" s="15">
         <v>13021</v>
       </c>
-      <c r="AU3" s="16">
+      <c r="AU3" s="15">
         <v>14608</v>
       </c>
-      <c r="AV3" s="16">
+      <c r="AV3" s="15">
         <v>13623</v>
       </c>
-      <c r="AW3" s="16">
+      <c r="AW3" s="15">
         <v>14286</v>
       </c>
-      <c r="AX3" s="16">
+      <c r="AX3" s="15">
         <v>13326</v>
       </c>
       <c r="AY3" s="2">
@@ -4683,22 +4666,22 @@
       <c r="AZ3" s="1">
         <v>2980</v>
       </c>
-      <c r="BA3" s="16">
+      <c r="BA3" s="15">
         <v>9268</v>
       </c>
-      <c r="BB3" s="16">
+      <c r="BB3" s="15">
         <v>1655</v>
       </c>
-      <c r="BC3" s="16">
+      <c r="BC3" s="15">
         <v>6935</v>
       </c>
-      <c r="BD3" s="16">
+      <c r="BD3" s="15">
         <v>3343</v>
       </c>
-      <c r="BE3" s="16">
+      <c r="BE3" s="15">
         <v>12453</v>
       </c>
-      <c r="BF3" s="16">
+      <c r="BF3" s="15">
         <v>3367</v>
       </c>
       <c r="BG3" s="2">
@@ -4707,22 +4690,22 @@
       <c r="BH3" s="1">
         <v>7404</v>
       </c>
-      <c r="BI3" s="16">
+      <c r="BI3" s="15">
         <v>4925</v>
       </c>
-      <c r="BJ3" s="16">
+      <c r="BJ3" s="15">
         <v>12521</v>
       </c>
-      <c r="BK3" s="16">
+      <c r="BK3" s="15">
         <v>10363</v>
       </c>
-      <c r="BL3" s="16">
+      <c r="BL3" s="15">
         <v>4562</v>
       </c>
-      <c r="BM3" s="16">
+      <c r="BM3" s="15">
         <v>14383</v>
       </c>
-      <c r="BN3" s="16">
+      <c r="BN3" s="15">
         <v>789</v>
       </c>
       <c r="BO3" s="2">
@@ -68275,28 +68258,28 @@
       <c r="B317" s="6" t="s">
         <v>743</v>
       </c>
-      <c r="C317" s="12" t="s">
-        <v>745</v>
+      <c r="C317" s="11" t="s">
+        <v>709</v>
       </c>
       <c r="D317" s="5">
         <v>76</v>
       </c>
-      <c r="E317" s="17">
+      <c r="E317" s="16">
         <v>67</v>
       </c>
-      <c r="F317" s="17">
+      <c r="F317" s="16">
         <v>163</v>
       </c>
-      <c r="G317" s="17">
+      <c r="G317" s="16">
         <v>111</v>
       </c>
-      <c r="H317" s="17">
+      <c r="H317" s="16">
         <v>66</v>
       </c>
-      <c r="I317" s="17">
+      <c r="I317" s="16">
         <v>284</v>
       </c>
-      <c r="J317" s="17">
+      <c r="J317" s="16">
         <v>0</v>
       </c>
       <c r="K317" s="6">
@@ -68305,22 +68288,22 @@
       <c r="L317" s="5">
         <v>1</v>
       </c>
-      <c r="M317" s="17">
+      <c r="M317" s="16">
         <v>239</v>
       </c>
-      <c r="N317" s="17">
+      <c r="N317" s="16">
         <v>31</v>
       </c>
-      <c r="O317" s="17">
+      <c r="O317" s="16">
         <v>3</v>
       </c>
-      <c r="P317" s="17">
+      <c r="P317" s="16">
         <v>232</v>
       </c>
-      <c r="Q317" s="17">
+      <c r="Q317" s="16">
         <v>52</v>
       </c>
-      <c r="R317" s="17">
+      <c r="R317" s="16">
         <v>13</v>
       </c>
       <c r="S317" s="6">
@@ -68329,22 +68312,22 @@
       <c r="T317" s="5">
         <v>12</v>
       </c>
-      <c r="U317" s="17">
+      <c r="U317" s="16">
         <v>19</v>
       </c>
-      <c r="V317" s="17">
+      <c r="V317" s="16">
         <v>38</v>
       </c>
-      <c r="W317" s="17">
+      <c r="W317" s="16">
         <v>28</v>
       </c>
-      <c r="X317" s="17">
+      <c r="X317" s="16">
         <v>198</v>
       </c>
-      <c r="Y317" s="17">
+      <c r="Y317" s="16">
         <v>18</v>
       </c>
-      <c r="Z317" s="17">
+      <c r="Z317" s="16">
         <v>8</v>
       </c>
       <c r="AA317" s="6">
@@ -68353,22 +68336,22 @@
       <c r="AB317" s="5">
         <v>6</v>
       </c>
-      <c r="AC317" s="17">
+      <c r="AC317" s="16">
         <v>1</v>
       </c>
-      <c r="AD317" s="17">
+      <c r="AD317" s="16">
         <v>57</v>
       </c>
-      <c r="AE317" s="17">
+      <c r="AE317" s="16">
         <v>2</v>
       </c>
-      <c r="AF317" s="17">
+      <c r="AF317" s="16">
         <v>11</v>
       </c>
-      <c r="AG317" s="17">
+      <c r="AG317" s="16">
         <v>16</v>
       </c>
-      <c r="AH317" s="17">
+      <c r="AH317" s="16">
         <v>41</v>
       </c>
       <c r="AI317" s="6">
@@ -68377,22 +68360,22 @@
       <c r="AJ317" s="5">
         <v>29</v>
       </c>
-      <c r="AK317" s="17">
+      <c r="AK317" s="16">
         <v>29</v>
       </c>
-      <c r="AL317" s="17">
+      <c r="AL317" s="16">
         <v>124</v>
       </c>
-      <c r="AM317" s="17">
+      <c r="AM317" s="16">
         <v>24</v>
       </c>
-      <c r="AN317" s="17">
+      <c r="AN317" s="16">
         <v>35</v>
       </c>
-      <c r="AO317" s="17">
+      <c r="AO317" s="16">
         <v>113</v>
       </c>
-      <c r="AP317" s="17">
+      <c r="AP317" s="16">
         <v>50</v>
       </c>
       <c r="AQ317" s="6">
@@ -68401,22 +68384,22 @@
       <c r="AR317" s="5">
         <v>30</v>
       </c>
-      <c r="AS317" s="17">
+      <c r="AS317" s="16">
         <v>23</v>
       </c>
-      <c r="AT317" s="17">
+      <c r="AT317" s="16">
         <v>17</v>
       </c>
-      <c r="AU317" s="17">
+      <c r="AU317" s="16">
         <v>22</v>
       </c>
-      <c r="AV317" s="17">
+      <c r="AV317" s="16">
         <v>35</v>
       </c>
-      <c r="AW317" s="17">
+      <c r="AW317" s="16">
         <v>25</v>
       </c>
-      <c r="AX317" s="17">
+      <c r="AX317" s="16">
         <v>14</v>
       </c>
       <c r="AY317" s="6">
@@ -68425,22 +68408,22 @@
       <c r="AZ317" s="5">
         <v>15</v>
       </c>
-      <c r="BA317" s="17">
+      <c r="BA317" s="16">
         <v>4</v>
       </c>
-      <c r="BB317" s="17">
+      <c r="BB317" s="16">
         <v>7</v>
       </c>
-      <c r="BC317" s="17">
+      <c r="BC317" s="16">
         <v>14</v>
       </c>
-      <c r="BD317" s="17">
+      <c r="BD317" s="16">
         <v>64</v>
       </c>
-      <c r="BE317" s="17">
+      <c r="BE317" s="16">
         <v>11</v>
       </c>
-      <c r="BF317" s="17">
+      <c r="BF317" s="16">
         <v>16</v>
       </c>
       <c r="BG317" s="6">
@@ -68449,22 +68432,22 @@
       <c r="BH317" s="5">
         <v>43</v>
       </c>
-      <c r="BI317" s="17">
+      <c r="BI317" s="16">
         <v>2</v>
       </c>
-      <c r="BJ317" s="17">
+      <c r="BJ317" s="16">
         <v>34</v>
       </c>
-      <c r="BK317" s="17">
+      <c r="BK317" s="16">
         <v>27</v>
       </c>
-      <c r="BL317" s="17">
+      <c r="BL317" s="16">
         <v>3</v>
       </c>
-      <c r="BM317" s="17">
+      <c r="BM317" s="16">
         <v>3</v>
       </c>
-      <c r="BN317" s="17">
+      <c r="BN317" s="16">
         <v>0</v>
       </c>
       <c r="BO317" s="6">

--- a/data/dataset_neuroscience_vo.xlsx
+++ b/data/dataset_neuroscience_vo.xlsx
@@ -8,136 +8,37 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MDASILVA\MDASILVA\ESEO\INTERSHIP\BDA\BDA_Project\BDAJupiterNotebook\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A1D1DD8-E1C7-47B6-87D6-7E140C409609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67B6C9C4-B366-42BC-849E-7B82CDF90211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{C829A673-F44C-49DE-8E9A-B2FC9AA259F4}"/>
   </bookViews>
   <sheets>
     <sheet name="c-Fos-counts" sheetId="2" r:id="rId1"/>
-    <sheet name="c_Behavioral" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1159" uniqueCount="745">
-  <si>
-    <t>animal</t>
-  </si>
-  <si>
-    <t>sex</t>
-  </si>
-  <si>
-    <t>drug</t>
-  </si>
-  <si>
-    <t>total_HTR</t>
-  </si>
-  <si>
-    <t>time_to_peak</t>
-  </si>
-  <si>
-    <t>peak_val</t>
-  </si>
-  <si>
-    <t>FWHM_length</t>
-  </si>
-  <si>
-    <t>FWHM_val</t>
-  </si>
-  <si>
-    <t>five_MEO_DMT_1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="708">
   <si>
     <t>Female</t>
   </si>
   <si>
-    <t>5-MeO-DMT</t>
-  </si>
-  <si>
-    <t>five_MEO_DMT_2</t>
-  </si>
-  <si>
-    <t>five_MEO_DMT_3</t>
-  </si>
-  <si>
-    <t>five_MEO_DMT_4</t>
-  </si>
-  <si>
     <t>Male</t>
-  </si>
-  <si>
-    <t>five_MEO_DMT_5</t>
-  </si>
-  <si>
-    <t>five_MEO_DMT_6</t>
-  </si>
-  <si>
-    <t>psilo_1</t>
-  </si>
-  <si>
-    <t>Psilocybin</t>
-  </si>
-  <si>
-    <t>psilo_2</t>
-  </si>
-  <si>
-    <t>psilo_3</t>
-  </si>
-  <si>
-    <t>psilo_4</t>
-  </si>
-  <si>
-    <t>psilo_5</t>
-  </si>
-  <si>
-    <t>psilo_6</t>
-  </si>
-  <si>
-    <t>sal_1</t>
-  </si>
-  <si>
-    <t>Saline</t>
-  </si>
-  <si>
-    <t>sal_2</t>
-  </si>
-  <si>
-    <t>sal_3</t>
-  </si>
-  <si>
-    <t>sal_4</t>
-  </si>
-  <si>
-    <t>sal_5</t>
-  </si>
-  <si>
-    <t>sal_6</t>
-  </si>
-  <si>
-    <t>sal_7</t>
-  </si>
-  <si>
-    <t>DET_1</t>
-  </si>
-  <si>
-    <t>6-Fluoro-DET</t>
-  </si>
-  <si>
-    <t>DET_2</t>
-  </si>
-  <si>
-    <t>DET_3</t>
-  </si>
-  <si>
-    <t>DET_4</t>
-  </si>
-  <si>
-    <t>DET_5</t>
-  </si>
-  <si>
-    <t>DET_6</t>
   </si>
   <si>
     <t>abbreviation</t>
@@ -3396,10 +3297,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{665CECC1-8FBB-4BDB-A4F2-9DF141040273}">
-  <dimension ref="A1:BO317"/>
+  <dimension ref="A1:BO323"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="AM321" sqref="AM321"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3412,216 +3313,216 @@
   <sheetData>
     <row r="1" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="S1" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="T1" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="U1" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="V1" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="W1" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="X1" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y1" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z1" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA1" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB1" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC1" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD1" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE1" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF1" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG1" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH1" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI1" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ1" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK1" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="AL1" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="AM1" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="AN1" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="AO1" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="AP1" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="AQ1" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="AR1" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="AS1" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="AT1" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="AU1" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="AV1" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="AW1" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="AX1" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="AY1" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="O1" s="18" t="s">
+      <c r="AZ1" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="P1" s="18" t="s">
+      <c r="BA1" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="Q1" s="18" t="s">
+      <c r="BB1" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="R1" s="18" t="s">
+      <c r="BC1" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="S1" s="19" t="s">
+      <c r="BD1" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="T1" s="20" t="s">
+      <c r="BE1" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="U1" s="21" t="s">
+      <c r="BF1" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="V1" s="21" t="s">
+      <c r="BG1" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="W1" s="21" t="s">
+      <c r="BH1" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="X1" s="21" t="s">
+      <c r="BI1" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="Y1" s="21" t="s">
+      <c r="BJ1" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="Z1" s="21" t="s">
+      <c r="BK1" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="AA1" s="22" t="s">
+      <c r="BL1" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="AB1" s="23" t="s">
+      <c r="BM1" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="AC1" s="24" t="s">
+      <c r="BN1" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="AD1" s="24" t="s">
+      <c r="BO1" s="37" t="s">
         <v>68</v>
-      </c>
-      <c r="AE1" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF1" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="AG1" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="AH1" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="AI1" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="AJ1" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="AK1" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="AL1" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="AM1" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="AN1" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="AO1" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="AP1" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="AQ1" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="AR1" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="AS1" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="AT1" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="AU1" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="AV1" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="AW1" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="AX1" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="AY1" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="AZ1" s="32" t="s">
-        <v>90</v>
-      </c>
-      <c r="BA1" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="BB1" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="BC1" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="BD1" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="BE1" s="33" t="s">
-        <v>95</v>
-      </c>
-      <c r="BF1" s="33" t="s">
-        <v>96</v>
-      </c>
-      <c r="BG1" s="34" t="s">
-        <v>97</v>
-      </c>
-      <c r="BH1" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="BI1" s="36" t="s">
-        <v>99</v>
-      </c>
-      <c r="BJ1" s="36" t="s">
-        <v>100</v>
-      </c>
-      <c r="BK1" s="36" t="s">
-        <v>101</v>
-      </c>
-      <c r="BL1" s="36" t="s">
-        <v>102</v>
-      </c>
-      <c r="BM1" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="BN1" s="36" t="s">
-        <v>104</v>
-      </c>
-      <c r="BO1" s="37" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>106</v>
+        <v>69</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>107</v>
+        <v>70</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c r="D2" s="1">
         <v>9574</v>
@@ -3818,13 +3719,13 @@
     </row>
     <row r="3" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>110</v>
+        <v>73</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c r="D3" s="3">
         <v>12138</v>
@@ -4021,13 +3922,13 @@
     </row>
     <row r="4" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>112</v>
+        <v>75</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c r="D4" s="3">
         <v>48129</v>
@@ -4224,13 +4125,13 @@
     </row>
     <row r="5" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c r="D5" s="3">
         <v>17225</v>
@@ -4427,13 +4328,13 @@
     </row>
     <row r="6" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>116</v>
+        <v>79</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c r="D6" s="3">
         <v>32690</v>
@@ -4630,13 +4531,13 @@
     </row>
     <row r="7" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>118</v>
+        <v>81</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c r="D7" s="3">
         <v>27675</v>
@@ -4833,13 +4734,13 @@
     </row>
     <row r="8" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>119</v>
+        <v>82</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>120</v>
+        <v>83</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c r="D8" s="3">
         <v>14988</v>
@@ -5036,13 +4937,13 @@
     </row>
     <row r="9" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>121</v>
+        <v>84</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>122</v>
+        <v>85</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c r="D9" s="3">
         <v>11743</v>
@@ -5239,13 +5140,13 @@
     </row>
     <row r="10" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>123</v>
+        <v>86</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>124</v>
+        <v>87</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c r="D10" s="3">
         <v>26242</v>
@@ -5442,13 +5343,13 @@
     </row>
     <row r="11" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>125</v>
+        <v>88</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>126</v>
+        <v>89</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c r="D11" s="3">
         <v>22295</v>
@@ -5645,13 +5546,13 @@
     </row>
     <row r="12" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>127</v>
+        <v>90</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>128</v>
+        <v>91</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c r="D12" s="3">
         <v>19326</v>
@@ -5848,13 +5749,13 @@
     </row>
     <row r="13" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>129</v>
+        <v>92</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>130</v>
+        <v>93</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c r="D13" s="3">
         <v>35975</v>
@@ -6051,13 +5952,13 @@
     </row>
     <row r="14" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>131</v>
+        <v>94</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>132</v>
+        <v>95</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c r="D14" s="3">
         <v>15267</v>
@@ -6254,13 +6155,13 @@
     </row>
     <row r="15" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>133</v>
+        <v>96</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>134</v>
+        <v>97</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c r="D15" s="3">
         <v>52795</v>
@@ -6457,13 +6358,13 @@
     </row>
     <row r="16" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>135</v>
+        <v>98</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>136</v>
+        <v>99</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c r="D16" s="3">
         <v>3984</v>
@@ -6660,13 +6561,13 @@
     </row>
     <row r="17" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>138</v>
+        <v>101</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c r="D17" s="3">
         <v>21082</v>
@@ -6863,13 +6764,13 @@
     </row>
     <row r="18" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>139</v>
+        <v>102</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>140</v>
+        <v>103</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c r="D18" s="3">
         <v>4107</v>
@@ -7066,13 +6967,13 @@
     </row>
     <row r="19" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>141</v>
+        <v>104</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>142</v>
+        <v>105</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c r="D19" s="3">
         <v>10436</v>
@@ -7269,13 +7170,13 @@
     </row>
     <row r="20" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>143</v>
+        <v>106</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>144</v>
+        <v>107</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c r="D20" s="3">
         <v>17239</v>
@@ -7472,13 +7373,13 @@
     </row>
     <row r="21" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>145</v>
+        <v>108</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>146</v>
+        <v>109</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c r="D21" s="3">
         <v>21071</v>
@@ -7675,13 +7576,13 @@
     </row>
     <row r="22" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>147</v>
+        <v>110</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>148</v>
+        <v>111</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c r="D22" s="3">
         <v>4586</v>
@@ -7878,13 +7779,13 @@
     </row>
     <row r="23" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>149</v>
+        <v>112</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>150</v>
+        <v>113</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c r="D23" s="3">
         <v>15187</v>
@@ -8081,13 +7982,13 @@
     </row>
     <row r="24" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>151</v>
+        <v>114</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>152</v>
+        <v>115</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c r="D24" s="3">
         <v>8503</v>
@@ -8284,13 +8185,13 @@
     </row>
     <row r="25" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>153</v>
+        <v>116</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c r="D25" s="3">
         <v>12726</v>
@@ -8487,13 +8388,13 @@
     </row>
     <row r="26" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>155</v>
+        <v>118</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>156</v>
+        <v>119</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c r="D26" s="3">
         <v>32878</v>
@@ -8690,13 +8591,13 @@
     </row>
     <row r="27" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>157</v>
+        <v>120</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>158</v>
+        <v>121</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c r="D27" s="3">
         <v>39907</v>
@@ -8893,13 +8794,13 @@
     </row>
     <row r="28" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>159</v>
+        <v>122</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>160</v>
+        <v>123</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c r="D28" s="3">
         <v>23235</v>
@@ -9096,13 +8997,13 @@
     </row>
     <row r="29" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>161</v>
+        <v>124</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>162</v>
+        <v>125</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c r="D29" s="3">
         <v>123382</v>
@@ -9299,13 +9200,13 @@
     </row>
     <row r="30" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>164</v>
+        <v>127</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c r="D30" s="3">
         <v>128409</v>
@@ -9502,13 +9403,13 @@
     </row>
     <row r="31" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>166</v>
+        <v>129</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c r="D31" s="3">
         <v>61692</v>
@@ -9705,13 +9606,13 @@
     </row>
     <row r="32" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>167</v>
+        <v>130</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>168</v>
+        <v>131</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c r="D32" s="3">
         <v>121420</v>
@@ -9908,13 +9809,13 @@
     </row>
     <row r="33" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>169</v>
+        <v>132</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>170</v>
+        <v>133</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c r="D33" s="3">
         <v>34445</v>
@@ -10111,13 +10012,13 @@
     </row>
     <row r="34" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>171</v>
+        <v>134</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>172</v>
+        <v>135</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c r="D34" s="3">
         <v>63685</v>
@@ -10314,13 +10215,13 @@
     </row>
     <row r="35" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>173</v>
+        <v>136</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>174</v>
+        <v>137</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c r="D35" s="3">
         <v>51967</v>
@@ -10517,13 +10418,13 @@
     </row>
     <row r="36" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>175</v>
+        <v>138</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c r="D36" s="3">
         <v>19290</v>
@@ -10720,13 +10621,13 @@
     </row>
     <row r="37" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>177</v>
+        <v>140</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>178</v>
+        <v>141</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c r="D37" s="3">
         <v>21649</v>
@@ -10923,13 +10824,13 @@
     </row>
     <row r="38" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>179</v>
+        <v>142</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>180</v>
+        <v>143</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c r="D38" s="3">
         <v>141503</v>
@@ -11126,13 +11027,13 @@
     </row>
     <row r="39" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>181</v>
+        <v>144</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>182</v>
+        <v>145</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c r="D39" s="3">
         <v>15676</v>
@@ -11329,13 +11230,13 @@
     </row>
     <row r="40" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>183</v>
+        <v>146</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>184</v>
+        <v>147</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c r="D40" s="3">
         <v>25993</v>
@@ -11532,13 +11433,13 @@
     </row>
     <row r="41" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>185</v>
+        <v>148</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>186</v>
+        <v>149</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c r="D41" s="3">
         <v>22772</v>
@@ -11735,13 +11636,13 @@
     </row>
     <row r="42" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>188</v>
+        <v>151</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c r="D42" s="3">
         <v>42084</v>
@@ -11938,13 +11839,13 @@
     </row>
     <row r="43" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>189</v>
+        <v>152</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>190</v>
+        <v>153</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c r="D43" s="3">
         <v>10473</v>
@@ -12141,13 +12042,13 @@
     </row>
     <row r="44" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>191</v>
+        <v>154</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>192</v>
+        <v>155</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c r="D44" s="3">
         <v>34092</v>
@@ -12344,13 +12245,13 @@
     </row>
     <row r="45" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>193</v>
+        <v>156</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>194</v>
+        <v>157</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c r="D45" s="3">
         <v>10215</v>
@@ -12547,13 +12448,13 @@
     </row>
     <row r="46" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>195</v>
+        <v>158</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>196</v>
+        <v>159</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c r="D46" s="3">
         <v>9532</v>
@@ -12750,13 +12651,13 @@
     </row>
     <row r="47" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>197</v>
+        <v>160</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>198</v>
+        <v>161</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c r="D47" s="3">
         <v>13000</v>
@@ -12953,13 +12854,13 @@
     </row>
     <row r="48" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>199</v>
+        <v>162</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>200</v>
+        <v>163</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c r="D48" s="3">
         <v>68516</v>
@@ -13156,13 +13057,13 @@
     </row>
     <row r="49" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>201</v>
+        <v>164</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>202</v>
+        <v>165</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c r="D49" s="3">
         <v>10733</v>
@@ -13359,13 +13260,13 @@
     </row>
     <row r="50" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>203</v>
+        <v>166</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>204</v>
+        <v>167</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c r="D50" s="3">
         <v>14177</v>
@@ -13562,13 +13463,13 @@
     </row>
     <row r="51" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>205</v>
+        <v>168</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>206</v>
+        <v>169</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c r="D51" s="3">
         <v>7321</v>
@@ -13765,13 +13666,13 @@
     </row>
     <row r="52" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>207</v>
+        <v>170</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>208</v>
+        <v>171</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>209</v>
+        <v>172</v>
       </c>
       <c r="D52" s="3">
         <v>2031</v>
@@ -13968,13 +13869,13 @@
     </row>
     <row r="53" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>210</v>
+        <v>173</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>211</v>
+        <v>174</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>209</v>
+        <v>172</v>
       </c>
       <c r="D53" s="3">
         <v>1852</v>
@@ -14171,13 +14072,13 @@
     </row>
     <row r="54" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
-        <v>212</v>
+        <v>175</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>213</v>
+        <v>176</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>209</v>
+        <v>172</v>
       </c>
       <c r="D54" s="3">
         <v>90487</v>
@@ -14374,13 +14275,13 @@
     </row>
     <row r="55" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>214</v>
+        <v>177</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>215</v>
+        <v>178</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>209</v>
+        <v>172</v>
       </c>
       <c r="D55" s="3">
         <v>1602</v>
@@ -14577,13 +14478,13 @@
     </row>
     <row r="56" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>216</v>
+        <v>179</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>217</v>
+        <v>180</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>209</v>
+        <v>172</v>
       </c>
       <c r="D56" s="3">
         <v>6070</v>
@@ -14780,13 +14681,13 @@
     </row>
     <row r="57" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
-        <v>218</v>
+        <v>181</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>219</v>
+        <v>182</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>209</v>
+        <v>172</v>
       </c>
       <c r="D57" s="3">
         <v>42831</v>
@@ -14983,13 +14884,13 @@
     </row>
     <row r="58" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
-        <v>220</v>
+        <v>183</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>221</v>
+        <v>184</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>209</v>
+        <v>172</v>
       </c>
       <c r="D58" s="3">
         <v>9132</v>
@@ -15186,13 +15087,13 @@
     </row>
     <row r="59" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
-        <v>222</v>
+        <v>185</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>223</v>
+        <v>186</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>209</v>
+        <v>172</v>
       </c>
       <c r="D59" s="3">
         <v>4812</v>
@@ -15389,13 +15290,13 @@
     </row>
     <row r="60" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
-        <v>224</v>
+        <v>187</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>225</v>
+        <v>188</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>209</v>
+        <v>172</v>
       </c>
       <c r="D60" s="3">
         <v>52015</v>
@@ -15592,13 +15493,13 @@
     </row>
     <row r="61" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
-        <v>226</v>
+        <v>189</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>227</v>
+        <v>190</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>209</v>
+        <v>172</v>
       </c>
       <c r="D61" s="3">
         <v>3560</v>
@@ -15795,13 +15696,13 @@
     </row>
     <row r="62" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
-        <v>228</v>
+        <v>191</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>229</v>
+        <v>192</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>209</v>
+        <v>172</v>
       </c>
       <c r="D62" s="3">
         <v>579</v>
@@ -15998,13 +15899,13 @@
     </row>
     <row r="63" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
-        <v>230</v>
+        <v>193</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>231</v>
+        <v>194</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>232</v>
+        <v>195</v>
       </c>
       <c r="D63" s="3">
         <v>20883</v>
@@ -16201,13 +16102,13 @@
     </row>
     <row r="64" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
-        <v>233</v>
+        <v>196</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>234</v>
+        <v>197</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>232</v>
+        <v>195</v>
       </c>
       <c r="D64" s="3">
         <v>55579</v>
@@ -16404,13 +16305,13 @@
     </row>
     <row r="65" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>235</v>
+        <v>198</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>236</v>
+        <v>199</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>232</v>
+        <v>195</v>
       </c>
       <c r="D65" s="3">
         <v>26830</v>
@@ -16607,13 +16508,13 @@
     </row>
     <row r="66" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
-        <v>237</v>
+        <v>200</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>238</v>
+        <v>201</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>232</v>
+        <v>195</v>
       </c>
       <c r="D66" s="3">
         <v>27295</v>
@@ -16810,13 +16711,13 @@
     </row>
     <row r="67" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
-        <v>239</v>
+        <v>202</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>240</v>
+        <v>203</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>232</v>
+        <v>195</v>
       </c>
       <c r="D67" s="3">
         <v>17434</v>
@@ -17013,13 +16914,13 @@
     </row>
     <row r="68" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
-        <v>241</v>
+        <v>204</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>242</v>
+        <v>205</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>232</v>
+        <v>195</v>
       </c>
       <c r="D68" s="3">
         <v>408</v>
@@ -17216,13 +17117,13 @@
     </row>
     <row r="69" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
-        <v>243</v>
+        <v>206</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>244</v>
+        <v>207</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>232</v>
+        <v>195</v>
       </c>
       <c r="D69" s="3">
         <v>448</v>
@@ -17419,13 +17320,13 @@
     </row>
     <row r="70" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
-        <v>245</v>
+        <v>208</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>246</v>
+        <v>209</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>232</v>
+        <v>195</v>
       </c>
       <c r="D70" s="3">
         <v>2184</v>
@@ -17622,13 +17523,13 @@
     </row>
     <row r="71" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
-        <v>247</v>
+        <v>210</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>248</v>
+        <v>211</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>232</v>
+        <v>195</v>
       </c>
       <c r="D71" s="3">
         <v>2046</v>
@@ -17825,13 +17726,13 @@
     </row>
     <row r="72" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
-        <v>249</v>
+        <v>212</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>250</v>
+        <v>213</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>232</v>
+        <v>195</v>
       </c>
       <c r="D72" s="3">
         <v>8348</v>
@@ -18028,13 +17929,13 @@
     </row>
     <row r="73" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
-        <v>251</v>
+        <v>214</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>252</v>
+        <v>215</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>232</v>
+        <v>195</v>
       </c>
       <c r="D73" s="3">
         <v>12040</v>
@@ -18231,13 +18132,13 @@
     </row>
     <row r="74" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
-        <v>253</v>
+        <v>216</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>254</v>
+        <v>217</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>232</v>
+        <v>195</v>
       </c>
       <c r="D74" s="3">
         <v>3427</v>
@@ -18434,13 +18335,13 @@
     </row>
     <row r="75" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
-        <v>255</v>
+        <v>218</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>256</v>
+        <v>219</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>232</v>
+        <v>195</v>
       </c>
       <c r="D75" s="3">
         <v>4632</v>
@@ -18637,13 +18538,13 @@
     </row>
     <row r="76" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
-        <v>257</v>
+        <v>220</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>258</v>
+        <v>221</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>232</v>
+        <v>195</v>
       </c>
       <c r="D76" s="3">
         <v>4199</v>
@@ -18840,13 +18741,13 @@
     </row>
     <row r="77" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
-        <v>259</v>
+        <v>222</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>260</v>
+        <v>223</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>232</v>
+        <v>195</v>
       </c>
       <c r="D77" s="3">
         <v>2405</v>
@@ -19043,13 +18944,13 @@
     </row>
     <row r="78" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
-        <v>261</v>
+        <v>224</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>262</v>
+        <v>225</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>263</v>
+        <v>226</v>
       </c>
       <c r="D78" s="3">
         <v>3249</v>
@@ -19246,13 +19147,13 @@
     </row>
     <row r="79" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
-        <v>264</v>
+        <v>227</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>265</v>
+        <v>228</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>263</v>
+        <v>226</v>
       </c>
       <c r="D79" s="3">
         <v>505</v>
@@ -19449,13 +19350,13 @@
     </row>
     <row r="80" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
-        <v>266</v>
+        <v>229</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>267</v>
+        <v>230</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>263</v>
+        <v>226</v>
       </c>
       <c r="D80" s="3">
         <v>11768</v>
@@ -19652,13 +19553,13 @@
     </row>
     <row r="81" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
-        <v>268</v>
+        <v>231</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>269</v>
+        <v>232</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>263</v>
+        <v>226</v>
       </c>
       <c r="D81" s="3">
         <v>1114</v>
@@ -19855,13 +19756,13 @@
     </row>
     <row r="82" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
-        <v>270</v>
+        <v>233</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>271</v>
+        <v>234</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>263</v>
+        <v>226</v>
       </c>
       <c r="D82" s="3">
         <v>11547</v>
@@ -20058,13 +19959,13 @@
     </row>
     <row r="83" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
-        <v>272</v>
+        <v>235</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>273</v>
+        <v>236</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>263</v>
+        <v>226</v>
       </c>
       <c r="D83" s="3">
         <v>1743</v>
@@ -20261,13 +20162,13 @@
     </row>
     <row r="84" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
-        <v>274</v>
+        <v>237</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>275</v>
+        <v>238</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>263</v>
+        <v>226</v>
       </c>
       <c r="D84" s="3">
         <v>1516</v>
@@ -20464,13 +20365,13 @@
     </row>
     <row r="85" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
-        <v>276</v>
+        <v>239</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>277</v>
+        <v>240</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>263</v>
+        <v>226</v>
       </c>
       <c r="D85" s="3">
         <v>29</v>
@@ -20667,13 +20568,13 @@
     </row>
     <row r="86" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
-        <v>278</v>
+        <v>241</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>279</v>
+        <v>242</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>263</v>
+        <v>226</v>
       </c>
       <c r="D86" s="3">
         <v>10174</v>
@@ -20870,13 +20771,13 @@
     </row>
     <row r="87" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
-        <v>280</v>
+        <v>243</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>281</v>
+        <v>244</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>263</v>
+        <v>226</v>
       </c>
       <c r="D87" s="3">
         <v>2309</v>
@@ -21073,13 +20974,13 @@
     </row>
     <row r="88" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
-        <v>282</v>
+        <v>245</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>283</v>
+        <v>246</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>263</v>
+        <v>226</v>
       </c>
       <c r="D88" s="3">
         <v>1403</v>
@@ -21276,13 +21177,13 @@
     </row>
     <row r="89" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
-        <v>284</v>
+        <v>247</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>285</v>
+        <v>248</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>263</v>
+        <v>226</v>
       </c>
       <c r="D89" s="3">
         <v>11552</v>
@@ -21479,13 +21380,13 @@
     </row>
     <row r="90" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
-        <v>286</v>
+        <v>249</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>287</v>
+        <v>250</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>263</v>
+        <v>226</v>
       </c>
       <c r="D90" s="3">
         <v>1</v>
@@ -21682,13 +21583,13 @@
     </row>
     <row r="91" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>289</v>
+        <v>252</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>263</v>
+        <v>226</v>
       </c>
       <c r="D91" s="3">
         <v>14226</v>
@@ -21885,13 +21786,13 @@
     </row>
     <row r="92" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
-        <v>290</v>
+        <v>253</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>291</v>
+        <v>254</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>263</v>
+        <v>226</v>
       </c>
       <c r="D92" s="3">
         <v>181237</v>
@@ -22088,13 +21989,13 @@
     </row>
     <row r="93" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
-        <v>292</v>
+        <v>255</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>293</v>
+        <v>256</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>263</v>
+        <v>226</v>
       </c>
       <c r="D93" s="3">
         <v>2270</v>
@@ -22291,13 +22192,13 @@
     </row>
     <row r="94" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
-        <v>294</v>
+        <v>257</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>295</v>
+        <v>258</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>263</v>
+        <v>226</v>
       </c>
       <c r="D94" s="3">
         <v>7293</v>
@@ -22494,13 +22395,13 @@
     </row>
     <row r="95" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
-        <v>296</v>
+        <v>259</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>297</v>
+        <v>260</v>
       </c>
       <c r="C95" s="11" t="s">
-        <v>263</v>
+        <v>226</v>
       </c>
       <c r="D95" s="3">
         <v>2617</v>
@@ -22697,13 +22598,13 @@
     </row>
     <row r="96" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
-        <v>298</v>
+        <v>261</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>299</v>
+        <v>262</v>
       </c>
       <c r="C96" s="11" t="s">
-        <v>263</v>
+        <v>226</v>
       </c>
       <c r="D96" s="3">
         <v>44153</v>
@@ -22900,13 +22801,13 @@
     </row>
     <row r="97" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
-        <v>300</v>
+        <v>263</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>301</v>
+        <v>264</v>
       </c>
       <c r="C97" s="11" t="s">
-        <v>263</v>
+        <v>226</v>
       </c>
       <c r="D97" s="3">
         <v>1557</v>
@@ -23103,13 +23004,13 @@
     </row>
     <row r="98" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
-        <v>302</v>
+        <v>265</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>303</v>
+        <v>266</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>263</v>
+        <v>226</v>
       </c>
       <c r="D98" s="3">
         <v>428</v>
@@ -23306,13 +23207,13 @@
     </row>
     <row r="99" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
-        <v>304</v>
+        <v>267</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>305</v>
+        <v>268</v>
       </c>
       <c r="C99" s="11" t="s">
-        <v>263</v>
+        <v>226</v>
       </c>
       <c r="D99" s="3">
         <v>1623</v>
@@ -23509,13 +23410,13 @@
     </row>
     <row r="100" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
-        <v>306</v>
+        <v>269</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>307</v>
+        <v>270</v>
       </c>
       <c r="C100" s="11" t="s">
-        <v>263</v>
+        <v>226</v>
       </c>
       <c r="D100" s="3">
         <v>27875</v>
@@ -23712,13 +23613,13 @@
     </row>
     <row r="101" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
-        <v>308</v>
+        <v>271</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>309</v>
+        <v>272</v>
       </c>
       <c r="C101" s="11" t="s">
-        <v>310</v>
+        <v>273</v>
       </c>
       <c r="D101" s="3">
         <v>5797</v>
@@ -23915,13 +23816,13 @@
     </row>
     <row r="102" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
-        <v>311</v>
+        <v>274</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>312</v>
+        <v>275</v>
       </c>
       <c r="C102" s="11" t="s">
-        <v>310</v>
+        <v>273</v>
       </c>
       <c r="D102" s="3">
         <v>2223</v>
@@ -24118,13 +24019,13 @@
     </row>
     <row r="103" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
-        <v>313</v>
+        <v>276</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>314</v>
+        <v>277</v>
       </c>
       <c r="C103" s="11" t="s">
-        <v>310</v>
+        <v>273</v>
       </c>
       <c r="D103" s="3">
         <v>434</v>
@@ -24321,13 +24222,13 @@
     </row>
     <row r="104" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
-        <v>315</v>
+        <v>278</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>316</v>
+        <v>279</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>310</v>
+        <v>273</v>
       </c>
       <c r="D104" s="3">
         <v>1296</v>
@@ -24524,13 +24425,13 @@
     </row>
     <row r="105" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>318</v>
+        <v>281</v>
       </c>
       <c r="C105" s="11" t="s">
-        <v>310</v>
+        <v>273</v>
       </c>
       <c r="D105" s="3">
         <v>2512</v>
@@ -24727,13 +24628,13 @@
     </row>
     <row r="106" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
-        <v>319</v>
+        <v>282</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>320</v>
+        <v>283</v>
       </c>
       <c r="C106" s="11" t="s">
-        <v>310</v>
+        <v>273</v>
       </c>
       <c r="D106" s="3">
         <v>2117</v>
@@ -24930,13 +24831,13 @@
     </row>
     <row r="107" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
-        <v>321</v>
+        <v>284</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>322</v>
+        <v>285</v>
       </c>
       <c r="C107" s="11" t="s">
-        <v>310</v>
+        <v>273</v>
       </c>
       <c r="D107" s="3">
         <v>673</v>
@@ -25133,13 +25034,13 @@
     </row>
     <row r="108" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
-        <v>323</v>
+        <v>286</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>324</v>
+        <v>287</v>
       </c>
       <c r="C108" s="11" t="s">
-        <v>310</v>
+        <v>273</v>
       </c>
       <c r="D108" s="3">
         <v>669</v>
@@ -25336,13 +25237,13 @@
     </row>
     <row r="109" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
-        <v>325</v>
+        <v>288</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>326</v>
+        <v>289</v>
       </c>
       <c r="C109" s="11" t="s">
-        <v>310</v>
+        <v>273</v>
       </c>
       <c r="D109" s="3">
         <v>485</v>
@@ -25539,13 +25440,13 @@
     </row>
     <row r="110" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
-        <v>327</v>
+        <v>290</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>328</v>
+        <v>291</v>
       </c>
       <c r="C110" s="11" t="s">
-        <v>310</v>
+        <v>273</v>
       </c>
       <c r="D110" s="3">
         <v>860</v>
@@ -25742,13 +25643,13 @@
     </row>
     <row r="111" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
-        <v>329</v>
+        <v>292</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>330</v>
+        <v>293</v>
       </c>
       <c r="C111" s="11" t="s">
-        <v>310</v>
+        <v>273</v>
       </c>
       <c r="D111" s="3">
         <v>1529</v>
@@ -25945,13 +25846,13 @@
     </row>
     <row r="112" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
-        <v>331</v>
+        <v>294</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>332</v>
+        <v>295</v>
       </c>
       <c r="C112" s="11" t="s">
-        <v>310</v>
+        <v>273</v>
       </c>
       <c r="D112" s="3">
         <v>3582</v>
@@ -26148,13 +26049,13 @@
     </row>
     <row r="113" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
-        <v>333</v>
+        <v>296</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>334</v>
+        <v>297</v>
       </c>
       <c r="C113" s="11" t="s">
-        <v>310</v>
+        <v>273</v>
       </c>
       <c r="D113" s="3">
         <v>2279</v>
@@ -26351,13 +26252,13 @@
     </row>
     <row r="114" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
-        <v>335</v>
+        <v>298</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>336</v>
+        <v>299</v>
       </c>
       <c r="C114" s="11" t="s">
-        <v>310</v>
+        <v>273</v>
       </c>
       <c r="D114" s="3">
         <v>1760</v>
@@ -26554,13 +26455,13 @@
     </row>
     <row r="115" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
-        <v>337</v>
+        <v>300</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="C115" s="11" t="s">
-        <v>310</v>
+        <v>273</v>
       </c>
       <c r="D115" s="3">
         <v>260</v>
@@ -26757,13 +26658,13 @@
     </row>
     <row r="116" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A116" s="3" t="s">
-        <v>339</v>
+        <v>302</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>340</v>
+        <v>303</v>
       </c>
       <c r="C116" s="11" t="s">
-        <v>310</v>
+        <v>273</v>
       </c>
       <c r="D116" s="3">
         <v>3694</v>
@@ -26960,13 +26861,13 @@
     </row>
     <row r="117" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="s">
-        <v>341</v>
+        <v>304</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>342</v>
+        <v>305</v>
       </c>
       <c r="C117" s="11" t="s">
-        <v>310</v>
+        <v>273</v>
       </c>
       <c r="D117" s="3">
         <v>137</v>
@@ -27163,13 +27064,13 @@
     </row>
     <row r="118" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
-        <v>343</v>
+        <v>306</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>344</v>
+        <v>307</v>
       </c>
       <c r="C118" s="11" t="s">
-        <v>310</v>
+        <v>273</v>
       </c>
       <c r="D118" s="3">
         <v>763</v>
@@ -27366,13 +27267,13 @@
     </row>
     <row r="119" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
-        <v>345</v>
+        <v>308</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>346</v>
+        <v>309</v>
       </c>
       <c r="C119" s="11" t="s">
-        <v>310</v>
+        <v>273</v>
       </c>
       <c r="D119" s="3">
         <v>3488</v>
@@ -27569,13 +27470,13 @@
     </row>
     <row r="120" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
-        <v>347</v>
+        <v>310</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>348</v>
+        <v>311</v>
       </c>
       <c r="C120" s="11" t="s">
-        <v>310</v>
+        <v>273</v>
       </c>
       <c r="D120" s="3">
         <v>2051</v>
@@ -27772,13 +27673,13 @@
     </row>
     <row r="121" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
-        <v>349</v>
+        <v>312</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="C121" s="11" t="s">
-        <v>310</v>
+        <v>273</v>
       </c>
       <c r="D121" s="3">
         <v>980</v>
@@ -27975,13 +27876,13 @@
     </row>
     <row r="122" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
-        <v>351</v>
+        <v>314</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>352</v>
+        <v>315</v>
       </c>
       <c r="C122" s="11" t="s">
-        <v>310</v>
+        <v>273</v>
       </c>
       <c r="D122" s="3">
         <v>6398</v>
@@ -28178,13 +28079,13 @@
     </row>
     <row r="123" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
-        <v>353</v>
+        <v>316</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>354</v>
+        <v>317</v>
       </c>
       <c r="C123" s="11" t="s">
-        <v>310</v>
+        <v>273</v>
       </c>
       <c r="D123" s="3">
         <v>488</v>
@@ -28381,13 +28282,13 @@
     </row>
     <row r="124" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="s">
-        <v>355</v>
+        <v>318</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>356</v>
+        <v>319</v>
       </c>
       <c r="C124" s="11" t="s">
-        <v>310</v>
+        <v>273</v>
       </c>
       <c r="D124" s="3">
         <v>1059</v>
@@ -28584,13 +28485,13 @@
     </row>
     <row r="125" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
-        <v>357</v>
+        <v>320</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>358</v>
+        <v>321</v>
       </c>
       <c r="C125" s="11" t="s">
-        <v>310</v>
+        <v>273</v>
       </c>
       <c r="D125" s="3">
         <v>452</v>
@@ -28787,13 +28688,13 @@
     </row>
     <row r="126" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
-        <v>359</v>
+        <v>322</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>360</v>
+        <v>323</v>
       </c>
       <c r="C126" s="11" t="s">
-        <v>310</v>
+        <v>273</v>
       </c>
       <c r="D126" s="3">
         <v>2294</v>
@@ -28990,13 +28891,13 @@
     </row>
     <row r="127" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
-        <v>361</v>
+        <v>324</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>362</v>
+        <v>325</v>
       </c>
       <c r="C127" s="11" t="s">
-        <v>310</v>
+        <v>273</v>
       </c>
       <c r="D127" s="3">
         <v>696</v>
@@ -29193,13 +29094,13 @@
     </row>
     <row r="128" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="s">
-        <v>363</v>
+        <v>326</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>364</v>
+        <v>327</v>
       </c>
       <c r="C128" s="11" t="s">
-        <v>310</v>
+        <v>273</v>
       </c>
       <c r="D128" s="3">
         <v>286</v>
@@ -29396,13 +29297,13 @@
     </row>
     <row r="129" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="s">
-        <v>365</v>
+        <v>328</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>366</v>
+        <v>329</v>
       </c>
       <c r="C129" s="11" t="s">
-        <v>310</v>
+        <v>273</v>
       </c>
       <c r="D129" s="3">
         <v>922</v>
@@ -29599,13 +29500,13 @@
     </row>
     <row r="130" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A130" s="3" t="s">
-        <v>367</v>
+        <v>330</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>368</v>
+        <v>331</v>
       </c>
       <c r="C130" s="11" t="s">
-        <v>310</v>
+        <v>273</v>
       </c>
       <c r="D130" s="3">
         <v>3520</v>
@@ -29802,13 +29703,13 @@
     </row>
     <row r="131" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A131" s="3" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>370</v>
+        <v>333</v>
       </c>
       <c r="C131" s="11" t="s">
-        <v>310</v>
+        <v>273</v>
       </c>
       <c r="D131" s="3">
         <v>1446</v>
@@ -30005,13 +29906,13 @@
     </row>
     <row r="132" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A132" s="3" t="s">
-        <v>371</v>
+        <v>334</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>372</v>
+        <v>335</v>
       </c>
       <c r="C132" s="11" t="s">
-        <v>310</v>
+        <v>273</v>
       </c>
       <c r="D132" s="3">
         <v>2054</v>
@@ -30208,13 +30109,13 @@
     </row>
     <row r="133" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="s">
-        <v>373</v>
+        <v>336</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>374</v>
+        <v>337</v>
       </c>
       <c r="C133" s="11" t="s">
-        <v>310</v>
+        <v>273</v>
       </c>
       <c r="D133" s="3">
         <v>2106</v>
@@ -30411,13 +30312,13 @@
     </row>
     <row r="134" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A134" s="3" t="s">
-        <v>375</v>
+        <v>338</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>376</v>
+        <v>339</v>
       </c>
       <c r="C134" s="11" t="s">
-        <v>310</v>
+        <v>273</v>
       </c>
       <c r="D134" s="3">
         <v>1515</v>
@@ -30614,13 +30515,13 @@
     </row>
     <row r="135" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A135" s="3" t="s">
-        <v>377</v>
+        <v>340</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>378</v>
+        <v>341</v>
       </c>
       <c r="C135" s="11" t="s">
-        <v>310</v>
+        <v>273</v>
       </c>
       <c r="D135" s="3">
         <v>2972</v>
@@ -30817,13 +30718,13 @@
     </row>
     <row r="136" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A136" s="3" t="s">
-        <v>379</v>
+        <v>342</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>380</v>
+        <v>343</v>
       </c>
       <c r="C136" s="11" t="s">
-        <v>310</v>
+        <v>273</v>
       </c>
       <c r="D136" s="3">
         <v>805</v>
@@ -31020,13 +30921,13 @@
     </row>
     <row r="137" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A137" s="3" t="s">
-        <v>381</v>
+        <v>344</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>382</v>
+        <v>345</v>
       </c>
       <c r="C137" s="11" t="s">
-        <v>310</v>
+        <v>273</v>
       </c>
       <c r="D137" s="3">
         <v>1676</v>
@@ -31223,13 +31124,13 @@
     </row>
     <row r="138" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A138" s="3" t="s">
-        <v>383</v>
+        <v>346</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>384</v>
+        <v>347</v>
       </c>
       <c r="C138" s="11" t="s">
-        <v>310</v>
+        <v>273</v>
       </c>
       <c r="D138" s="3">
         <v>760</v>
@@ -31426,13 +31327,13 @@
     </row>
     <row r="139" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A139" s="3" t="s">
-        <v>385</v>
+        <v>348</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>386</v>
+        <v>349</v>
       </c>
       <c r="C139" s="11" t="s">
-        <v>310</v>
+        <v>273</v>
       </c>
       <c r="D139" s="3">
         <v>2074</v>
@@ -31629,13 +31530,13 @@
     </row>
     <row r="140" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A140" s="3" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>388</v>
+        <v>351</v>
       </c>
       <c r="C140" s="11" t="s">
-        <v>310</v>
+        <v>273</v>
       </c>
       <c r="D140" s="3">
         <v>493</v>
@@ -31832,13 +31733,13 @@
     </row>
     <row r="141" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A141" s="3" t="s">
-        <v>389</v>
+        <v>352</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>390</v>
+        <v>353</v>
       </c>
       <c r="C141" s="11" t="s">
-        <v>310</v>
+        <v>273</v>
       </c>
       <c r="D141" s="3">
         <v>1495</v>
@@ -32035,13 +31936,13 @@
     </row>
     <row r="142" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A142" s="3" t="s">
-        <v>391</v>
+        <v>354</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>392</v>
+        <v>355</v>
       </c>
       <c r="C142" s="11" t="s">
-        <v>310</v>
+        <v>273</v>
       </c>
       <c r="D142" s="3">
         <v>4275</v>
@@ -32238,13 +32139,13 @@
     </row>
     <row r="143" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A143" s="3" t="s">
-        <v>393</v>
+        <v>356</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>394</v>
+        <v>357</v>
       </c>
       <c r="C143" s="11" t="s">
-        <v>310</v>
+        <v>273</v>
       </c>
       <c r="D143" s="3">
         <v>2347</v>
@@ -32441,13 +32342,13 @@
     </row>
     <row r="144" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A144" s="3" t="s">
-        <v>395</v>
+        <v>358</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>396</v>
+        <v>359</v>
       </c>
       <c r="C144" s="11" t="s">
-        <v>310</v>
+        <v>273</v>
       </c>
       <c r="D144" s="3">
         <v>3416</v>
@@ -32644,13 +32545,13 @@
     </row>
     <row r="145" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A145" s="3" t="s">
-        <v>397</v>
+        <v>360</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>398</v>
+        <v>361</v>
       </c>
       <c r="C145" s="11" t="s">
-        <v>399</v>
+        <v>362</v>
       </c>
       <c r="D145" s="3">
         <v>6627</v>
@@ -32847,13 +32748,13 @@
     </row>
     <row r="146" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A146" s="3" t="s">
-        <v>400</v>
+        <v>363</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>401</v>
+        <v>364</v>
       </c>
       <c r="C146" s="11" t="s">
-        <v>399</v>
+        <v>362</v>
       </c>
       <c r="D146" s="3">
         <v>1567</v>
@@ -33050,13 +32951,13 @@
     </row>
     <row r="147" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A147" s="3" t="s">
-        <v>402</v>
+        <v>365</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>403</v>
+        <v>366</v>
       </c>
       <c r="C147" s="11" t="s">
-        <v>399</v>
+        <v>362</v>
       </c>
       <c r="D147" s="3">
         <v>2706</v>
@@ -33253,13 +33154,13 @@
     </row>
     <row r="148" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A148" s="3" t="s">
-        <v>404</v>
+        <v>367</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>405</v>
+        <v>368</v>
       </c>
       <c r="C148" s="11" t="s">
-        <v>399</v>
+        <v>362</v>
       </c>
       <c r="D148" s="3">
         <v>459</v>
@@ -33456,13 +33357,13 @@
     </row>
     <row r="149" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A149" s="3" t="s">
-        <v>406</v>
+        <v>369</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>407</v>
+        <v>370</v>
       </c>
       <c r="C149" s="11" t="s">
-        <v>399</v>
+        <v>362</v>
       </c>
       <c r="D149" s="3">
         <v>230</v>
@@ -33659,13 +33560,13 @@
     </row>
     <row r="150" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A150" s="3" t="s">
-        <v>408</v>
+        <v>371</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>409</v>
+        <v>372</v>
       </c>
       <c r="C150" s="11" t="s">
-        <v>399</v>
+        <v>362</v>
       </c>
       <c r="D150" s="3">
         <v>4544</v>
@@ -33862,13 +33763,13 @@
     </row>
     <row r="151" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A151" s="3" t="s">
-        <v>410</v>
+        <v>373</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>411</v>
+        <v>374</v>
       </c>
       <c r="C151" s="11" t="s">
-        <v>399</v>
+        <v>362</v>
       </c>
       <c r="D151" s="3">
         <v>1343</v>
@@ -34065,13 +33966,13 @@
     </row>
     <row r="152" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A152" s="3" t="s">
-        <v>412</v>
+        <v>375</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>413</v>
+        <v>376</v>
       </c>
       <c r="C152" s="11" t="s">
-        <v>399</v>
+        <v>362</v>
       </c>
       <c r="D152" s="3">
         <v>2032</v>
@@ -34268,13 +34169,13 @@
     </row>
     <row r="153" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A153" s="3" t="s">
-        <v>414</v>
+        <v>377</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>415</v>
+        <v>378</v>
       </c>
       <c r="C153" s="11" t="s">
-        <v>399</v>
+        <v>362</v>
       </c>
       <c r="D153" s="3">
         <v>1526</v>
@@ -34471,13 +34372,13 @@
     </row>
     <row r="154" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A154" s="3" t="s">
-        <v>416</v>
+        <v>379</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>417</v>
+        <v>380</v>
       </c>
       <c r="C154" s="11" t="s">
-        <v>399</v>
+        <v>362</v>
       </c>
       <c r="D154" s="3">
         <v>9912</v>
@@ -34674,13 +34575,13 @@
     </row>
     <row r="155" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A155" s="3" t="s">
-        <v>418</v>
+        <v>381</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>419</v>
+        <v>382</v>
       </c>
       <c r="C155" s="11" t="s">
-        <v>399</v>
+        <v>362</v>
       </c>
       <c r="D155" s="3">
         <v>24</v>
@@ -34877,13 +34778,13 @@
     </row>
     <row r="156" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A156" s="3" t="s">
-        <v>420</v>
+        <v>383</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>421</v>
+        <v>384</v>
       </c>
       <c r="C156" s="11" t="s">
-        <v>399</v>
+        <v>362</v>
       </c>
       <c r="D156" s="3">
         <v>2931</v>
@@ -35080,13 +34981,13 @@
     </row>
     <row r="157" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A157" s="3" t="s">
-        <v>422</v>
+        <v>385</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>423</v>
+        <v>386</v>
       </c>
       <c r="C157" s="11" t="s">
-        <v>399</v>
+        <v>362</v>
       </c>
       <c r="D157" s="3">
         <v>137</v>
@@ -35283,13 +35184,13 @@
     </row>
     <row r="158" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A158" s="3" t="s">
-        <v>424</v>
+        <v>387</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>425</v>
+        <v>388</v>
       </c>
       <c r="C158" s="11" t="s">
-        <v>399</v>
+        <v>362</v>
       </c>
       <c r="D158" s="3">
         <v>3000</v>
@@ -35486,13 +35387,13 @@
     </row>
     <row r="159" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A159" s="3" t="s">
-        <v>426</v>
+        <v>389</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>427</v>
+        <v>390</v>
       </c>
       <c r="C159" s="11" t="s">
-        <v>399</v>
+        <v>362</v>
       </c>
       <c r="D159" s="3">
         <v>1896</v>
@@ -35689,13 +35590,13 @@
     </row>
     <row r="160" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A160" s="3" t="s">
-        <v>428</v>
+        <v>391</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>429</v>
+        <v>392</v>
       </c>
       <c r="C160" s="11" t="s">
-        <v>399</v>
+        <v>362</v>
       </c>
       <c r="D160" s="3">
         <v>355</v>
@@ -35892,13 +35793,13 @@
     </row>
     <row r="161" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A161" s="3" t="s">
-        <v>430</v>
+        <v>393</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>431</v>
+        <v>394</v>
       </c>
       <c r="C161" s="11" t="s">
-        <v>399</v>
+        <v>362</v>
       </c>
       <c r="D161" s="3">
         <v>437</v>
@@ -36095,13 +35996,13 @@
     </row>
     <row r="162" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A162" s="3" t="s">
-        <v>432</v>
+        <v>395</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>433</v>
+        <v>396</v>
       </c>
       <c r="C162" s="11" t="s">
-        <v>399</v>
+        <v>362</v>
       </c>
       <c r="D162" s="3">
         <v>1915</v>
@@ -36298,13 +36199,13 @@
     </row>
     <row r="163" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A163" s="3" t="s">
-        <v>434</v>
+        <v>397</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>435</v>
+        <v>398</v>
       </c>
       <c r="C163" s="11" t="s">
-        <v>399</v>
+        <v>362</v>
       </c>
       <c r="D163" s="3">
         <v>9344</v>
@@ -36501,13 +36402,13 @@
     </row>
     <row r="164" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A164" s="3" t="s">
-        <v>436</v>
+        <v>399</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>437</v>
+        <v>400</v>
       </c>
       <c r="C164" s="11" t="s">
-        <v>399</v>
+        <v>362</v>
       </c>
       <c r="D164" s="3">
         <v>4</v>
@@ -36704,13 +36605,13 @@
     </row>
     <row r="165" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A165" s="3" t="s">
-        <v>438</v>
+        <v>401</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>439</v>
+        <v>402</v>
       </c>
       <c r="C165" s="11" t="s">
-        <v>399</v>
+        <v>362</v>
       </c>
       <c r="D165" s="3">
         <v>12804</v>
@@ -36907,13 +36808,13 @@
     </row>
     <row r="166" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A166" s="3" t="s">
-        <v>440</v>
+        <v>403</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>441</v>
+        <v>404</v>
       </c>
       <c r="C166" s="11" t="s">
-        <v>399</v>
+        <v>362</v>
       </c>
       <c r="D166" s="3">
         <v>7180</v>
@@ -37110,13 +37011,13 @@
     </row>
     <row r="167" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A167" s="3" t="s">
-        <v>442</v>
+        <v>405</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>443</v>
+        <v>406</v>
       </c>
       <c r="C167" s="11" t="s">
-        <v>399</v>
+        <v>362</v>
       </c>
       <c r="D167" s="3">
         <v>2120</v>
@@ -37313,13 +37214,13 @@
     </row>
     <row r="168" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A168" s="3" t="s">
-        <v>444</v>
+        <v>407</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>445</v>
+        <v>408</v>
       </c>
       <c r="C168" s="11" t="s">
-        <v>399</v>
+        <v>362</v>
       </c>
       <c r="D168" s="3">
         <v>205</v>
@@ -37516,13 +37417,13 @@
     </row>
     <row r="169" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A169" s="3" t="s">
-        <v>446</v>
+        <v>409</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>447</v>
+        <v>410</v>
       </c>
       <c r="C169" s="11" t="s">
-        <v>399</v>
+        <v>362</v>
       </c>
       <c r="D169" s="3">
         <v>179</v>
@@ -37719,13 +37620,13 @@
     </row>
     <row r="170" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A170" s="3" t="s">
-        <v>448</v>
+        <v>411</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>449</v>
+        <v>412</v>
       </c>
       <c r="C170" s="11" t="s">
-        <v>399</v>
+        <v>362</v>
       </c>
       <c r="D170" s="3">
         <v>143</v>
@@ -37922,13 +37823,13 @@
     </row>
     <row r="171" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A171" s="3" t="s">
-        <v>450</v>
+        <v>413</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>451</v>
+        <v>414</v>
       </c>
       <c r="C171" s="11" t="s">
-        <v>399</v>
+        <v>362</v>
       </c>
       <c r="D171" s="3">
         <v>94</v>
@@ -38125,13 +38026,13 @@
     </row>
     <row r="172" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A172" s="3" t="s">
-        <v>452</v>
+        <v>415</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>453</v>
+        <v>416</v>
       </c>
       <c r="C172" s="11" t="s">
-        <v>399</v>
+        <v>362</v>
       </c>
       <c r="D172" s="3">
         <v>2293</v>
@@ -38328,13 +38229,13 @@
     </row>
     <row r="173" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A173" s="3" t="s">
-        <v>454</v>
+        <v>417</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>455</v>
+        <v>418</v>
       </c>
       <c r="C173" s="11" t="s">
-        <v>399</v>
+        <v>362</v>
       </c>
       <c r="D173" s="3">
         <v>340</v>
@@ -38531,13 +38432,13 @@
     </row>
     <row r="174" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A174" s="3" t="s">
-        <v>456</v>
+        <v>419</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>457</v>
+        <v>420</v>
       </c>
       <c r="C174" s="11" t="s">
-        <v>399</v>
+        <v>362</v>
       </c>
       <c r="D174" s="3">
         <v>1551</v>
@@ -38734,13 +38635,13 @@
     </row>
     <row r="175" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A175" s="3" t="s">
-        <v>458</v>
+        <v>421</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>459</v>
+        <v>422</v>
       </c>
       <c r="C175" s="11" t="s">
-        <v>399</v>
+        <v>362</v>
       </c>
       <c r="D175" s="3">
         <v>1374</v>
@@ -38937,13 +38838,13 @@
     </row>
     <row r="176" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A176" s="3" t="s">
-        <v>460</v>
+        <v>423</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>461</v>
+        <v>424</v>
       </c>
       <c r="C176" s="11" t="s">
-        <v>399</v>
+        <v>362</v>
       </c>
       <c r="D176" s="3">
         <v>552</v>
@@ -39140,13 +39041,13 @@
     </row>
     <row r="177" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A177" s="3" t="s">
-        <v>462</v>
+        <v>425</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>463</v>
+        <v>426</v>
       </c>
       <c r="C177" s="11" t="s">
-        <v>399</v>
+        <v>362</v>
       </c>
       <c r="D177" s="3">
         <v>1147</v>
@@ -39343,13 +39244,13 @@
     </row>
     <row r="178" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A178" s="3" t="s">
-        <v>464</v>
+        <v>427</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>465</v>
+        <v>428</v>
       </c>
       <c r="C178" s="11" t="s">
-        <v>399</v>
+        <v>362</v>
       </c>
       <c r="D178" s="3">
         <v>8336</v>
@@ -39546,13 +39447,13 @@
     </row>
     <row r="179" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A179" s="3" t="s">
-        <v>466</v>
+        <v>429</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>467</v>
+        <v>430</v>
       </c>
       <c r="C179" s="11" t="s">
-        <v>399</v>
+        <v>362</v>
       </c>
       <c r="D179" s="3">
         <v>1729</v>
@@ -39749,13 +39650,13 @@
     </row>
     <row r="180" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A180" s="3" t="s">
-        <v>468</v>
+        <v>431</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>469</v>
+        <v>432</v>
       </c>
       <c r="C180" s="11" t="s">
-        <v>399</v>
+        <v>362</v>
       </c>
       <c r="D180" s="3">
         <v>4379</v>
@@ -39952,13 +39853,13 @@
     </row>
     <row r="181" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A181" s="3" t="s">
-        <v>470</v>
+        <v>433</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>471</v>
+        <v>434</v>
       </c>
       <c r="C181" s="11" t="s">
-        <v>399</v>
+        <v>362</v>
       </c>
       <c r="D181" s="3">
         <v>23</v>
@@ -40155,13 +40056,13 @@
     </row>
     <row r="182" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A182" s="3" t="s">
-        <v>472</v>
+        <v>435</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>473</v>
+        <v>436</v>
       </c>
       <c r="C182" s="11" t="s">
-        <v>399</v>
+        <v>362</v>
       </c>
       <c r="D182" s="3">
         <v>134</v>
@@ -40358,13 +40259,13 @@
     </row>
     <row r="183" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A183" s="3" t="s">
-        <v>474</v>
+        <v>437</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>475</v>
+        <v>438</v>
       </c>
       <c r="C183" s="11" t="s">
-        <v>399</v>
+        <v>362</v>
       </c>
       <c r="D183" s="3">
         <v>480</v>
@@ -40561,13 +40462,13 @@
     </row>
     <row r="184" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A184" s="3" t="s">
-        <v>476</v>
+        <v>439</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>477</v>
+        <v>440</v>
       </c>
       <c r="C184" s="11" t="s">
-        <v>399</v>
+        <v>362</v>
       </c>
       <c r="D184" s="3">
         <v>1301</v>
@@ -40764,13 +40665,13 @@
     </row>
     <row r="185" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A185" s="3" t="s">
-        <v>478</v>
+        <v>441</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>479</v>
+        <v>442</v>
       </c>
       <c r="C185" s="11" t="s">
-        <v>399</v>
+        <v>362</v>
       </c>
       <c r="D185" s="3">
         <v>1651</v>
@@ -40967,13 +40868,13 @@
     </row>
     <row r="186" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A186" s="3" t="s">
-        <v>480</v>
+        <v>443</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>481</v>
+        <v>444</v>
       </c>
       <c r="C186" s="11" t="s">
-        <v>399</v>
+        <v>362</v>
       </c>
       <c r="D186" s="3">
         <v>160</v>
@@ -41170,13 +41071,13 @@
     </row>
     <row r="187" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A187" s="3" t="s">
-        <v>482</v>
+        <v>445</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>483</v>
+        <v>446</v>
       </c>
       <c r="C187" s="11" t="s">
-        <v>399</v>
+        <v>362</v>
       </c>
       <c r="D187" s="3">
         <v>332</v>
@@ -41373,13 +41274,13 @@
     </row>
     <row r="188" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A188" s="3" t="s">
-        <v>484</v>
+        <v>447</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>485</v>
+        <v>448</v>
       </c>
       <c r="C188" s="11" t="s">
-        <v>399</v>
+        <v>362</v>
       </c>
       <c r="D188" s="3">
         <v>59</v>
@@ -41576,13 +41477,13 @@
     </row>
     <row r="189" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A189" s="3" t="s">
-        <v>486</v>
+        <v>449</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>487</v>
+        <v>450</v>
       </c>
       <c r="C189" s="11" t="s">
-        <v>488</v>
+        <v>451</v>
       </c>
       <c r="D189" s="3">
         <v>16</v>
@@ -41779,13 +41680,13 @@
     </row>
     <row r="190" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A190" s="3" t="s">
-        <v>489</v>
+        <v>452</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>490</v>
+        <v>453</v>
       </c>
       <c r="C190" s="11" t="s">
-        <v>488</v>
+        <v>451</v>
       </c>
       <c r="D190" s="3">
         <v>7721</v>
@@ -41982,13 +41883,13 @@
     </row>
     <row r="191" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A191" s="3" t="s">
-        <v>491</v>
+        <v>454</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>492</v>
+        <v>455</v>
       </c>
       <c r="C191" s="11" t="s">
-        <v>488</v>
+        <v>451</v>
       </c>
       <c r="D191" s="3">
         <v>2661</v>
@@ -42185,13 +42086,13 @@
     </row>
     <row r="192" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A192" s="3" t="s">
-        <v>493</v>
+        <v>456</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>494</v>
+        <v>457</v>
       </c>
       <c r="C192" s="11" t="s">
-        <v>488</v>
+        <v>451</v>
       </c>
       <c r="D192" s="3">
         <v>1804</v>
@@ -42388,13 +42289,13 @@
     </row>
     <row r="193" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A193" s="3" t="s">
-        <v>495</v>
+        <v>458</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>496</v>
+        <v>459</v>
       </c>
       <c r="C193" s="11" t="s">
-        <v>488</v>
+        <v>451</v>
       </c>
       <c r="D193" s="3">
         <v>150</v>
@@ -42591,13 +42492,13 @@
     </row>
     <row r="194" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A194" s="3" t="s">
-        <v>497</v>
+        <v>460</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>498</v>
+        <v>461</v>
       </c>
       <c r="C194" s="11" t="s">
-        <v>488</v>
+        <v>451</v>
       </c>
       <c r="D194" s="3">
         <v>35</v>
@@ -42794,13 +42695,13 @@
     </row>
     <row r="195" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A195" s="3" t="s">
-        <v>499</v>
+        <v>462</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>500</v>
+        <v>463</v>
       </c>
       <c r="C195" s="11" t="s">
-        <v>488</v>
+        <v>451</v>
       </c>
       <c r="D195" s="3">
         <v>30</v>
@@ -42997,13 +42898,13 @@
     </row>
     <row r="196" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A196" s="3" t="s">
-        <v>501</v>
+        <v>464</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>502</v>
+        <v>465</v>
       </c>
       <c r="C196" s="11" t="s">
-        <v>488</v>
+        <v>451</v>
       </c>
       <c r="D196" s="3">
         <v>12</v>
@@ -43200,13 +43101,13 @@
     </row>
     <row r="197" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A197" s="3" t="s">
-        <v>503</v>
+        <v>466</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>504</v>
+        <v>467</v>
       </c>
       <c r="C197" s="11" t="s">
-        <v>488</v>
+        <v>451</v>
       </c>
       <c r="D197" s="3">
         <v>418</v>
@@ -43403,13 +43304,13 @@
     </row>
     <row r="198" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A198" s="3" t="s">
-        <v>505</v>
+        <v>468</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>506</v>
+        <v>469</v>
       </c>
       <c r="C198" s="11" t="s">
-        <v>488</v>
+        <v>451</v>
       </c>
       <c r="D198" s="3">
         <v>575</v>
@@ -43606,13 +43507,13 @@
     </row>
     <row r="199" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A199" s="3" t="s">
-        <v>507</v>
+        <v>470</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>508</v>
+        <v>471</v>
       </c>
       <c r="C199" s="11" t="s">
-        <v>488</v>
+        <v>451</v>
       </c>
       <c r="D199" s="3">
         <v>69</v>
@@ -43809,13 +43710,13 @@
     </row>
     <row r="200" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A200" s="3" t="s">
-        <v>509</v>
+        <v>472</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>510</v>
+        <v>473</v>
       </c>
       <c r="C200" s="11" t="s">
-        <v>488</v>
+        <v>451</v>
       </c>
       <c r="D200" s="3">
         <v>1833</v>
@@ -44012,13 +43913,13 @@
     </row>
     <row r="201" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A201" s="3" t="s">
-        <v>511</v>
+        <v>474</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>512</v>
+        <v>475</v>
       </c>
       <c r="C201" s="11" t="s">
-        <v>488</v>
+        <v>451</v>
       </c>
       <c r="D201" s="3">
         <v>58</v>
@@ -44215,13 +44116,13 @@
     </row>
     <row r="202" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A202" s="3" t="s">
-        <v>513</v>
+        <v>476</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>514</v>
+        <v>477</v>
       </c>
       <c r="C202" s="11" t="s">
-        <v>488</v>
+        <v>451</v>
       </c>
       <c r="D202" s="3">
         <v>192</v>
@@ -44418,13 +44319,13 @@
     </row>
     <row r="203" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A203" s="3" t="s">
-        <v>515</v>
+        <v>478</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>516</v>
+        <v>479</v>
       </c>
       <c r="C203" s="11" t="s">
-        <v>488</v>
+        <v>451</v>
       </c>
       <c r="D203" s="3">
         <v>247</v>
@@ -44621,13 +44522,13 @@
     </row>
     <row r="204" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A204" s="3" t="s">
-        <v>517</v>
+        <v>480</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>518</v>
+        <v>481</v>
       </c>
       <c r="C204" s="11" t="s">
-        <v>488</v>
+        <v>451</v>
       </c>
       <c r="D204" s="3">
         <v>409</v>
@@ -44824,13 +44725,13 @@
     </row>
     <row r="205" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A205" s="3" t="s">
-        <v>519</v>
+        <v>482</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>520</v>
+        <v>483</v>
       </c>
       <c r="C205" s="11" t="s">
-        <v>488</v>
+        <v>451</v>
       </c>
       <c r="D205" s="3">
         <v>201</v>
@@ -45027,13 +44928,13 @@
     </row>
     <row r="206" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A206" s="3" t="s">
-        <v>521</v>
+        <v>484</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>522</v>
+        <v>485</v>
       </c>
       <c r="C206" s="11" t="s">
-        <v>488</v>
+        <v>451</v>
       </c>
       <c r="D206" s="3">
         <v>276</v>
@@ -45230,13 +45131,13 @@
     </row>
     <row r="207" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A207" s="3" t="s">
-        <v>523</v>
+        <v>486</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>524</v>
+        <v>487</v>
       </c>
       <c r="C207" s="11" t="s">
-        <v>488</v>
+        <v>451</v>
       </c>
       <c r="D207" s="3">
         <v>5606</v>
@@ -45433,13 +45334,13 @@
     </row>
     <row r="208" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A208" s="3" t="s">
-        <v>525</v>
+        <v>488</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>526</v>
+        <v>489</v>
       </c>
       <c r="C208" s="11" t="s">
-        <v>488</v>
+        <v>451</v>
       </c>
       <c r="D208" s="3">
         <v>1216</v>
@@ -45636,13 +45537,13 @@
     </row>
     <row r="209" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A209" s="3" t="s">
-        <v>527</v>
+        <v>490</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>528</v>
+        <v>491</v>
       </c>
       <c r="C209" s="11" t="s">
-        <v>488</v>
+        <v>451</v>
       </c>
       <c r="D209" s="3">
         <v>62</v>
@@ -45839,13 +45740,13 @@
     </row>
     <row r="210" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A210" s="3" t="s">
-        <v>529</v>
+        <v>492</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>530</v>
+        <v>493</v>
       </c>
       <c r="C210" s="11" t="s">
-        <v>488</v>
+        <v>451</v>
       </c>
       <c r="D210" s="3">
         <v>263</v>
@@ -46042,13 +45943,13 @@
     </row>
     <row r="211" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A211" s="3" t="s">
-        <v>531</v>
+        <v>494</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>532</v>
+        <v>495</v>
       </c>
       <c r="C211" s="11" t="s">
-        <v>488</v>
+        <v>451</v>
       </c>
       <c r="D211" s="3">
         <v>2241</v>
@@ -46245,13 +46146,13 @@
     </row>
     <row r="212" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A212" s="3" t="s">
-        <v>533</v>
+        <v>496</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>534</v>
+        <v>497</v>
       </c>
       <c r="C212" s="11" t="s">
-        <v>488</v>
+        <v>451</v>
       </c>
       <c r="D212" s="3">
         <v>39</v>
@@ -46448,13 +46349,13 @@
     </row>
     <row r="213" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A213" s="3" t="s">
-        <v>535</v>
+        <v>498</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>536</v>
+        <v>499</v>
       </c>
       <c r="C213" s="11" t="s">
-        <v>488</v>
+        <v>451</v>
       </c>
       <c r="D213" s="3">
         <v>819</v>
@@ -46651,13 +46552,13 @@
     </row>
     <row r="214" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A214" s="3" t="s">
-        <v>537</v>
+        <v>500</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>538</v>
+        <v>501</v>
       </c>
       <c r="C214" s="11" t="s">
-        <v>488</v>
+        <v>451</v>
       </c>
       <c r="D214" s="3">
         <v>1607</v>
@@ -46854,13 +46755,13 @@
     </row>
     <row r="215" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A215" s="3" t="s">
-        <v>539</v>
+        <v>502</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>540</v>
+        <v>503</v>
       </c>
       <c r="C215" s="11" t="s">
-        <v>488</v>
+        <v>451</v>
       </c>
       <c r="D215" s="3">
         <v>217</v>
@@ -47057,13 +46958,13 @@
     </row>
     <row r="216" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A216" s="3" t="s">
-        <v>541</v>
+        <v>504</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>542</v>
+        <v>505</v>
       </c>
       <c r="C216" s="11" t="s">
-        <v>488</v>
+        <v>451</v>
       </c>
       <c r="D216" s="3">
         <v>15</v>
@@ -47260,13 +47161,13 @@
     </row>
     <row r="217" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A217" s="3" t="s">
-        <v>543</v>
+        <v>506</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>544</v>
+        <v>507</v>
       </c>
       <c r="C217" s="11" t="s">
-        <v>488</v>
+        <v>451</v>
       </c>
       <c r="D217" s="3">
         <v>35</v>
@@ -47463,13 +47364,13 @@
     </row>
     <row r="218" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A218" s="3" t="s">
-        <v>545</v>
+        <v>508</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>546</v>
+        <v>509</v>
       </c>
       <c r="C218" s="11" t="s">
-        <v>488</v>
+        <v>451</v>
       </c>
       <c r="D218" s="3">
         <v>7</v>
@@ -47666,13 +47567,13 @@
     </row>
     <row r="219" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A219" s="3" t="s">
-        <v>547</v>
+        <v>510</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>548</v>
+        <v>511</v>
       </c>
       <c r="C219" s="11" t="s">
-        <v>488</v>
+        <v>451</v>
       </c>
       <c r="D219" s="3">
         <v>152</v>
@@ -47869,13 +47770,13 @@
     </row>
     <row r="220" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A220" s="3" t="s">
-        <v>549</v>
+        <v>512</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>550</v>
+        <v>513</v>
       </c>
       <c r="C220" s="11" t="s">
-        <v>488</v>
+        <v>451</v>
       </c>
       <c r="D220" s="3">
         <v>47</v>
@@ -48072,13 +47973,13 @@
     </row>
     <row r="221" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A221" s="3" t="s">
-        <v>551</v>
+        <v>514</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>552</v>
+        <v>515</v>
       </c>
       <c r="C221" s="11" t="s">
-        <v>488</v>
+        <v>451</v>
       </c>
       <c r="D221" s="3">
         <v>315</v>
@@ -48275,13 +48176,13 @@
     </row>
     <row r="222" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A222" s="3" t="s">
-        <v>553</v>
+        <v>516</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>554</v>
+        <v>517</v>
       </c>
       <c r="C222" s="11" t="s">
-        <v>488</v>
+        <v>451</v>
       </c>
       <c r="D222" s="3">
         <v>403</v>
@@ -48478,13 +48379,13 @@
     </row>
     <row r="223" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A223" s="3" t="s">
-        <v>555</v>
+        <v>518</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>556</v>
+        <v>519</v>
       </c>
       <c r="C223" s="11" t="s">
-        <v>488</v>
+        <v>451</v>
       </c>
       <c r="D223" s="3">
         <v>197</v>
@@ -48681,13 +48582,13 @@
     </row>
     <row r="224" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A224" s="3" t="s">
-        <v>557</v>
+        <v>520</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>558</v>
+        <v>521</v>
       </c>
       <c r="C224" s="11" t="s">
-        <v>488</v>
+        <v>451</v>
       </c>
       <c r="D224" s="3">
         <v>3121</v>
@@ -48884,13 +48785,13 @@
     </row>
     <row r="225" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A225" s="3" t="s">
-        <v>559</v>
+        <v>522</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>560</v>
+        <v>523</v>
       </c>
       <c r="C225" s="11" t="s">
-        <v>488</v>
+        <v>451</v>
       </c>
       <c r="D225" s="3">
         <v>3269</v>
@@ -49087,13 +48988,13 @@
     </row>
     <row r="226" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A226" s="3" t="s">
-        <v>561</v>
+        <v>524</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>562</v>
+        <v>525</v>
       </c>
       <c r="C226" s="11" t="s">
-        <v>488</v>
+        <v>451</v>
       </c>
       <c r="D226" s="3">
         <v>298</v>
@@ -49290,13 +49191,13 @@
     </row>
     <row r="227" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A227" s="3" t="s">
-        <v>563</v>
+        <v>526</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>564</v>
+        <v>527</v>
       </c>
       <c r="C227" s="11" t="s">
-        <v>488</v>
+        <v>451</v>
       </c>
       <c r="D227" s="3">
         <v>18</v>
@@ -49493,13 +49394,13 @@
     </row>
     <row r="228" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A228" s="3" t="s">
-        <v>565</v>
+        <v>528</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>566</v>
+        <v>529</v>
       </c>
       <c r="C228" s="11" t="s">
-        <v>488</v>
+        <v>451</v>
       </c>
       <c r="D228" s="3">
         <v>639</v>
@@ -49696,13 +49597,13 @@
     </row>
     <row r="229" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A229" s="3" t="s">
-        <v>567</v>
+        <v>530</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>568</v>
+        <v>531</v>
       </c>
       <c r="C229" s="11" t="s">
-        <v>488</v>
+        <v>451</v>
       </c>
       <c r="D229" s="3">
         <v>61</v>
@@ -49899,13 +49800,13 @@
     </row>
     <row r="230" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A230" s="3" t="s">
-        <v>569</v>
+        <v>532</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>570</v>
+        <v>533</v>
       </c>
       <c r="C230" s="11" t="s">
-        <v>488</v>
+        <v>451</v>
       </c>
       <c r="D230" s="3">
         <v>662</v>
@@ -50102,13 +50003,13 @@
     </row>
     <row r="231" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A231" s="3" t="s">
-        <v>571</v>
+        <v>534</v>
       </c>
       <c r="B231" s="4" t="s">
-        <v>572</v>
+        <v>535</v>
       </c>
       <c r="C231" s="11" t="s">
-        <v>488</v>
+        <v>451</v>
       </c>
       <c r="D231" s="3">
         <v>423</v>
@@ -50305,13 +50206,13 @@
     </row>
     <row r="232" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A232" s="3" t="s">
-        <v>573</v>
+        <v>536</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>574</v>
+        <v>537</v>
       </c>
       <c r="C232" s="11" t="s">
-        <v>488</v>
+        <v>451</v>
       </c>
       <c r="D232" s="3">
         <v>220</v>
@@ -50508,13 +50409,13 @@
     </row>
     <row r="233" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A233" s="3" t="s">
-        <v>575</v>
+        <v>538</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>576</v>
+        <v>539</v>
       </c>
       <c r="C233" s="11" t="s">
-        <v>488</v>
+        <v>451</v>
       </c>
       <c r="D233" s="3">
         <v>4646</v>
@@ -50711,13 +50612,13 @@
     </row>
     <row r="234" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A234" s="3" t="s">
-        <v>577</v>
+        <v>540</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>578</v>
+        <v>541</v>
       </c>
       <c r="C234" s="11" t="s">
-        <v>488</v>
+        <v>451</v>
       </c>
       <c r="D234" s="3">
         <v>1538</v>
@@ -50914,13 +50815,13 @@
     </row>
     <row r="235" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A235" s="3" t="s">
-        <v>579</v>
+        <v>542</v>
       </c>
       <c r="B235" s="4" t="s">
-        <v>580</v>
+        <v>543</v>
       </c>
       <c r="C235" s="11" t="s">
-        <v>488</v>
+        <v>451</v>
       </c>
       <c r="D235" s="3">
         <v>1755</v>
@@ -51117,13 +51018,13 @@
     </row>
     <row r="236" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A236" s="3" t="s">
-        <v>581</v>
+        <v>544</v>
       </c>
       <c r="B236" s="4" t="s">
-        <v>582</v>
+        <v>545</v>
       </c>
       <c r="C236" s="11" t="s">
-        <v>488</v>
+        <v>451</v>
       </c>
       <c r="D236" s="3">
         <v>812</v>
@@ -51320,13 +51221,13 @@
     </row>
     <row r="237" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A237" s="3" t="s">
-        <v>583</v>
+        <v>546</v>
       </c>
       <c r="B237" s="4" t="s">
-        <v>584</v>
+        <v>547</v>
       </c>
       <c r="C237" s="11" t="s">
-        <v>488</v>
+        <v>451</v>
       </c>
       <c r="D237" s="3">
         <v>120</v>
@@ -51523,13 +51424,13 @@
     </row>
     <row r="238" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A238" s="3" t="s">
-        <v>585</v>
+        <v>548</v>
       </c>
       <c r="B238" s="4" t="s">
-        <v>586</v>
+        <v>549</v>
       </c>
       <c r="C238" s="11" t="s">
-        <v>488</v>
+        <v>451</v>
       </c>
       <c r="D238" s="3">
         <v>158</v>
@@ -51726,13 +51627,13 @@
     </row>
     <row r="239" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A239" s="3" t="s">
-        <v>587</v>
+        <v>550</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>588</v>
+        <v>551</v>
       </c>
       <c r="C239" s="11" t="s">
-        <v>488</v>
+        <v>451</v>
       </c>
       <c r="D239" s="3">
         <v>12</v>
@@ -51929,13 +51830,13 @@
     </row>
     <row r="240" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A240" s="3" t="s">
-        <v>589</v>
+        <v>552</v>
       </c>
       <c r="B240" s="4" t="s">
-        <v>590</v>
+        <v>553</v>
       </c>
       <c r="C240" s="11" t="s">
-        <v>488</v>
+        <v>451</v>
       </c>
       <c r="D240" s="3">
         <v>4515</v>
@@ -52132,13 +52033,13 @@
     </row>
     <row r="241" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A241" s="3" t="s">
-        <v>591</v>
+        <v>554</v>
       </c>
       <c r="B241" s="4" t="s">
-        <v>592</v>
+        <v>555</v>
       </c>
       <c r="C241" s="11" t="s">
-        <v>488</v>
+        <v>451</v>
       </c>
       <c r="D241" s="3">
         <v>84</v>
@@ -52335,13 +52236,13 @@
     </row>
     <row r="242" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A242" s="3" t="s">
-        <v>593</v>
+        <v>556</v>
       </c>
       <c r="B242" s="4" t="s">
-        <v>594</v>
+        <v>557</v>
       </c>
       <c r="C242" s="11" t="s">
-        <v>488</v>
+        <v>451</v>
       </c>
       <c r="D242" s="3">
         <v>4364</v>
@@ -52538,13 +52439,13 @@
     </row>
     <row r="243" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A243" s="3" t="s">
-        <v>595</v>
+        <v>558</v>
       </c>
       <c r="B243" s="4" t="s">
-        <v>596</v>
+        <v>559</v>
       </c>
       <c r="C243" s="11" t="s">
-        <v>488</v>
+        <v>451</v>
       </c>
       <c r="D243" s="3">
         <v>39</v>
@@ -52741,13 +52642,13 @@
     </row>
     <row r="244" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A244" s="3" t="s">
-        <v>597</v>
+        <v>560</v>
       </c>
       <c r="B244" s="4" t="s">
-        <v>598</v>
+        <v>561</v>
       </c>
       <c r="C244" s="11" t="s">
-        <v>488</v>
+        <v>451</v>
       </c>
       <c r="D244" s="3">
         <v>256</v>
@@ -52944,13 +52845,13 @@
     </row>
     <row r="245" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A245" s="3" t="s">
-        <v>599</v>
+        <v>562</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>600</v>
+        <v>563</v>
       </c>
       <c r="C245" s="11" t="s">
-        <v>488</v>
+        <v>451</v>
       </c>
       <c r="D245" s="3">
         <v>199</v>
@@ -53147,13 +53048,13 @@
     </row>
     <row r="246" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A246" s="3" t="s">
-        <v>601</v>
+        <v>564</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>602</v>
+        <v>565</v>
       </c>
       <c r="C246" s="11" t="s">
-        <v>488</v>
+        <v>451</v>
       </c>
       <c r="D246" s="3">
         <v>27</v>
@@ -53350,13 +53251,13 @@
     </row>
     <row r="247" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A247" s="3" t="s">
-        <v>603</v>
+        <v>566</v>
       </c>
       <c r="B247" s="4" t="s">
-        <v>604</v>
+        <v>567</v>
       </c>
       <c r="C247" s="11" t="s">
-        <v>488</v>
+        <v>451</v>
       </c>
       <c r="D247" s="3">
         <v>13</v>
@@ -53553,13 +53454,13 @@
     </row>
     <row r="248" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A248" s="3" t="s">
-        <v>605</v>
+        <v>568</v>
       </c>
       <c r="B248" s="4" t="s">
-        <v>606</v>
+        <v>569</v>
       </c>
       <c r="C248" s="11" t="s">
-        <v>488</v>
+        <v>451</v>
       </c>
       <c r="D248" s="3">
         <v>1481</v>
@@ -53756,13 +53657,13 @@
     </row>
     <row r="249" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A249" s="3" t="s">
-        <v>607</v>
+        <v>570</v>
       </c>
       <c r="B249" s="4" t="s">
-        <v>608</v>
+        <v>571</v>
       </c>
       <c r="C249" s="11" t="s">
-        <v>488</v>
+        <v>451</v>
       </c>
       <c r="D249" s="3">
         <v>5754</v>
@@ -53959,13 +53860,13 @@
     </row>
     <row r="250" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A250" s="3" t="s">
-        <v>609</v>
+        <v>572</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>610</v>
+        <v>573</v>
       </c>
       <c r="C250" s="11" t="s">
-        <v>488</v>
+        <v>451</v>
       </c>
       <c r="D250" s="3">
         <v>1504</v>
@@ -54162,13 +54063,13 @@
     </row>
     <row r="251" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A251" s="3" t="s">
-        <v>611</v>
+        <v>574</v>
       </c>
       <c r="B251" s="4" t="s">
-        <v>612</v>
+        <v>575</v>
       </c>
       <c r="C251" s="11" t="s">
-        <v>488</v>
+        <v>451</v>
       </c>
       <c r="D251" s="3">
         <v>451</v>
@@ -54365,13 +54266,13 @@
     </row>
     <row r="252" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A252" s="3" t="s">
-        <v>613</v>
+        <v>576</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>614</v>
+        <v>577</v>
       </c>
       <c r="C252" s="11" t="s">
-        <v>488</v>
+        <v>451</v>
       </c>
       <c r="D252" s="3">
         <v>24</v>
@@ -54568,13 +54469,13 @@
     </row>
     <row r="253" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A253" s="3" t="s">
-        <v>615</v>
+        <v>578</v>
       </c>
       <c r="B253" s="4" t="s">
-        <v>616</v>
+        <v>579</v>
       </c>
       <c r="C253" s="11" t="s">
-        <v>488</v>
+        <v>451</v>
       </c>
       <c r="D253" s="3">
         <v>2455</v>
@@ -54771,13 +54672,13 @@
     </row>
     <row r="254" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A254" s="3" t="s">
-        <v>617</v>
+        <v>580</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>618</v>
+        <v>581</v>
       </c>
       <c r="C254" s="11" t="s">
-        <v>488</v>
+        <v>451</v>
       </c>
       <c r="D254" s="3">
         <v>422</v>
@@ -54974,13 +54875,13 @@
     </row>
     <row r="255" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A255" s="3" t="s">
-        <v>619</v>
+        <v>582</v>
       </c>
       <c r="B255" s="4" t="s">
-        <v>620</v>
+        <v>583</v>
       </c>
       <c r="C255" s="11" t="s">
-        <v>488</v>
+        <v>451</v>
       </c>
       <c r="D255" s="3">
         <v>4836</v>
@@ -55177,13 +55078,13 @@
     </row>
     <row r="256" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A256" s="3" t="s">
-        <v>621</v>
+        <v>584</v>
       </c>
       <c r="B256" s="4" t="s">
-        <v>622</v>
+        <v>585</v>
       </c>
       <c r="C256" s="11" t="s">
-        <v>488</v>
+        <v>451</v>
       </c>
       <c r="D256" s="3">
         <v>55164</v>
@@ -55380,13 +55281,13 @@
     </row>
     <row r="257" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A257" s="3" t="s">
-        <v>623</v>
+        <v>586</v>
       </c>
       <c r="B257" s="4" t="s">
-        <v>624</v>
+        <v>587</v>
       </c>
       <c r="C257" s="11" t="s">
-        <v>488</v>
+        <v>451</v>
       </c>
       <c r="D257" s="3">
         <v>308</v>
@@ -55583,13 +55484,13 @@
     </row>
     <row r="258" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A258" s="3" t="s">
-        <v>625</v>
+        <v>588</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>626</v>
+        <v>589</v>
       </c>
       <c r="C258" s="11" t="s">
-        <v>488</v>
+        <v>451</v>
       </c>
       <c r="D258" s="3">
         <v>60552</v>
@@ -55786,13 +55687,13 @@
     </row>
     <row r="259" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A259" s="3" t="s">
-        <v>627</v>
+        <v>590</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>628</v>
+        <v>591</v>
       </c>
       <c r="C259" s="11" t="s">
-        <v>488</v>
+        <v>451</v>
       </c>
       <c r="D259" s="3">
         <v>1279</v>
@@ -55989,13 +55890,13 @@
     </row>
     <row r="260" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A260" s="3" t="s">
-        <v>629</v>
+        <v>592</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>630</v>
+        <v>593</v>
       </c>
       <c r="C260" s="11" t="s">
-        <v>488</v>
+        <v>451</v>
       </c>
       <c r="D260" s="3">
         <v>27</v>
@@ -56192,13 +56093,13 @@
     </row>
     <row r="261" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A261" s="3" t="s">
-        <v>631</v>
+        <v>594</v>
       </c>
       <c r="B261" s="4" t="s">
-        <v>632</v>
+        <v>595</v>
       </c>
       <c r="C261" s="11" t="s">
-        <v>488</v>
+        <v>451</v>
       </c>
       <c r="D261" s="3">
         <v>1777</v>
@@ -56395,13 +56296,13 @@
     </row>
     <row r="262" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A262" s="3" t="s">
-        <v>633</v>
+        <v>596</v>
       </c>
       <c r="B262" s="4" t="s">
-        <v>634</v>
+        <v>597</v>
       </c>
       <c r="C262" s="11" t="s">
-        <v>488</v>
+        <v>451</v>
       </c>
       <c r="D262" s="3">
         <v>1532</v>
@@ -56598,13 +56499,13 @@
     </row>
     <row r="263" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A263" s="3" t="s">
-        <v>635</v>
+        <v>598</v>
       </c>
       <c r="B263" s="4" t="s">
-        <v>636</v>
+        <v>599</v>
       </c>
       <c r="C263" s="11" t="s">
-        <v>488</v>
+        <v>451</v>
       </c>
       <c r="D263" s="3">
         <v>30</v>
@@ -56801,13 +56702,13 @@
     </row>
     <row r="264" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A264" s="3" t="s">
-        <v>637</v>
+        <v>600</v>
       </c>
       <c r="B264" s="4" t="s">
-        <v>638</v>
+        <v>601</v>
       </c>
       <c r="C264" s="11" t="s">
-        <v>488</v>
+        <v>451</v>
       </c>
       <c r="D264" s="3">
         <v>139</v>
@@ -57004,13 +56905,13 @@
     </row>
     <row r="265" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A265" s="3" t="s">
-        <v>639</v>
+        <v>602</v>
       </c>
       <c r="B265" s="4" t="s">
-        <v>640</v>
+        <v>603</v>
       </c>
       <c r="C265" s="11" t="s">
-        <v>488</v>
+        <v>451</v>
       </c>
       <c r="D265" s="3">
         <v>9</v>
@@ -57207,13 +57108,13 @@
     </row>
     <row r="266" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A266" s="3" t="s">
-        <v>641</v>
+        <v>604</v>
       </c>
       <c r="B266" s="4" t="s">
-        <v>642</v>
+        <v>605</v>
       </c>
       <c r="C266" s="11" t="s">
-        <v>488</v>
+        <v>451</v>
       </c>
       <c r="D266" s="3">
         <v>422</v>
@@ -57410,13 +57311,13 @@
     </row>
     <row r="267" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A267" s="3" t="s">
-        <v>643</v>
+        <v>606</v>
       </c>
       <c r="B267" s="4" t="s">
-        <v>644</v>
+        <v>607</v>
       </c>
       <c r="C267" s="11" t="s">
-        <v>488</v>
+        <v>451</v>
       </c>
       <c r="D267" s="3">
         <v>1182</v>
@@ -57613,13 +57514,13 @@
     </row>
     <row r="268" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A268" s="3" t="s">
-        <v>645</v>
+        <v>608</v>
       </c>
       <c r="B268" s="4" t="s">
-        <v>646</v>
+        <v>609</v>
       </c>
       <c r="C268" s="11" t="s">
-        <v>488</v>
+        <v>451</v>
       </c>
       <c r="D268" s="3">
         <v>35052</v>
@@ -57816,13 +57717,13 @@
     </row>
     <row r="269" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A269" s="3" t="s">
-        <v>647</v>
+        <v>610</v>
       </c>
       <c r="B269" s="4" t="s">
-        <v>648</v>
+        <v>611</v>
       </c>
       <c r="C269" s="11" t="s">
-        <v>488</v>
+        <v>451</v>
       </c>
       <c r="D269" s="3">
         <v>23185</v>
@@ -58019,13 +57920,13 @@
     </row>
     <row r="270" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A270" s="3" t="s">
-        <v>649</v>
+        <v>612</v>
       </c>
       <c r="B270" s="4" t="s">
-        <v>650</v>
+        <v>613</v>
       </c>
       <c r="C270" s="11" t="s">
-        <v>488</v>
+        <v>451</v>
       </c>
       <c r="D270" s="3">
         <v>31515</v>
@@ -58222,13 +58123,13 @@
     </row>
     <row r="271" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A271" s="3" t="s">
-        <v>651</v>
+        <v>614</v>
       </c>
       <c r="B271" s="4" t="s">
-        <v>652</v>
+        <v>615</v>
       </c>
       <c r="C271" s="11" t="s">
-        <v>488</v>
+        <v>451</v>
       </c>
       <c r="D271" s="3">
         <v>42</v>
@@ -58425,13 +58326,13 @@
     </row>
     <row r="272" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A272" s="3" t="s">
-        <v>653</v>
+        <v>616</v>
       </c>
       <c r="B272" s="4" t="s">
-        <v>654</v>
+        <v>617</v>
       </c>
       <c r="C272" s="11" t="s">
-        <v>488</v>
+        <v>451</v>
       </c>
       <c r="D272" s="3">
         <v>2860</v>
@@ -58628,13 +58529,13 @@
     </row>
     <row r="273" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A273" s="3" t="s">
-        <v>655</v>
+        <v>618</v>
       </c>
       <c r="B273" s="4" t="s">
-        <v>656</v>
+        <v>619</v>
       </c>
       <c r="C273" s="11" t="s">
-        <v>488</v>
+        <v>451</v>
       </c>
       <c r="D273" s="3">
         <v>102</v>
@@ -58831,13 +58732,13 @@
     </row>
     <row r="274" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A274" s="3" t="s">
-        <v>657</v>
+        <v>620</v>
       </c>
       <c r="B274" s="4" t="s">
-        <v>658</v>
+        <v>621</v>
       </c>
       <c r="C274" s="11" t="s">
-        <v>488</v>
+        <v>451</v>
       </c>
       <c r="D274" s="3">
         <v>1612</v>
@@ -59034,13 +58935,13 @@
     </row>
     <row r="275" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A275" s="3" t="s">
-        <v>659</v>
+        <v>622</v>
       </c>
       <c r="B275" s="4" t="s">
-        <v>660</v>
+        <v>623</v>
       </c>
       <c r="C275" s="11" t="s">
-        <v>488</v>
+        <v>451</v>
       </c>
       <c r="D275" s="3">
         <v>724</v>
@@ -59237,13 +59138,13 @@
     </row>
     <row r="276" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A276" s="3" t="s">
-        <v>661</v>
+        <v>624</v>
       </c>
       <c r="B276" s="4" t="s">
-        <v>662</v>
+        <v>625</v>
       </c>
       <c r="C276" s="11" t="s">
-        <v>488</v>
+        <v>451</v>
       </c>
       <c r="D276" s="3">
         <v>158</v>
@@ -59440,13 +59341,13 @@
     </row>
     <row r="277" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A277" s="3" t="s">
-        <v>663</v>
+        <v>626</v>
       </c>
       <c r="B277" s="4" t="s">
-        <v>664</v>
+        <v>627</v>
       </c>
       <c r="C277" s="11" t="s">
-        <v>488</v>
+        <v>451</v>
       </c>
       <c r="D277" s="3">
         <v>68</v>
@@ -59643,13 +59544,13 @@
     </row>
     <row r="278" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A278" s="3" t="s">
-        <v>665</v>
+        <v>628</v>
       </c>
       <c r="B278" s="4" t="s">
-        <v>666</v>
+        <v>629</v>
       </c>
       <c r="C278" s="11" t="s">
-        <v>488</v>
+        <v>451</v>
       </c>
       <c r="D278" s="3">
         <v>680</v>
@@ -59846,13 +59747,13 @@
     </row>
     <row r="279" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A279" s="3" t="s">
-        <v>667</v>
+        <v>630</v>
       </c>
       <c r="B279" s="4" t="s">
-        <v>668</v>
+        <v>631</v>
       </c>
       <c r="C279" s="11" t="s">
-        <v>488</v>
+        <v>451</v>
       </c>
       <c r="D279" s="3">
         <v>3423</v>
@@ -60049,13 +59950,13 @@
     </row>
     <row r="280" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A280" s="3" t="s">
-        <v>669</v>
+        <v>632</v>
       </c>
       <c r="B280" s="4" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
       <c r="C280" s="11" t="s">
-        <v>488</v>
+        <v>451</v>
       </c>
       <c r="D280" s="3">
         <v>254</v>
@@ -60252,13 +60153,13 @@
     </row>
     <row r="281" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A281" s="3" t="s">
-        <v>671</v>
+        <v>634</v>
       </c>
       <c r="B281" s="4" t="s">
-        <v>672</v>
+        <v>635</v>
       </c>
       <c r="C281" s="11" t="s">
-        <v>488</v>
+        <v>451</v>
       </c>
       <c r="D281" s="3">
         <v>253</v>
@@ -60455,13 +60356,13 @@
     </row>
     <row r="282" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A282" s="3" t="s">
-        <v>673</v>
+        <v>636</v>
       </c>
       <c r="B282" s="4" t="s">
-        <v>674</v>
+        <v>637</v>
       </c>
       <c r="C282" s="11" t="s">
-        <v>488</v>
+        <v>451</v>
       </c>
       <c r="D282" s="3">
         <v>360</v>
@@ -60658,13 +60559,13 @@
     </row>
     <row r="283" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A283" s="3" t="s">
-        <v>675</v>
+        <v>638</v>
       </c>
       <c r="B283" s="4" t="s">
-        <v>676</v>
+        <v>639</v>
       </c>
       <c r="C283" s="11" t="s">
-        <v>488</v>
+        <v>451</v>
       </c>
       <c r="D283" s="3">
         <v>148</v>
@@ -60861,13 +60762,13 @@
     </row>
     <row r="284" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A284" s="3" t="s">
-        <v>677</v>
+        <v>640</v>
       </c>
       <c r="B284" s="4" t="s">
-        <v>678</v>
+        <v>641</v>
       </c>
       <c r="C284" s="11" t="s">
-        <v>488</v>
+        <v>451</v>
       </c>
       <c r="D284" s="3">
         <v>8119</v>
@@ -61064,13 +60965,13 @@
     </row>
     <row r="285" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A285" s="3" t="s">
-        <v>679</v>
+        <v>642</v>
       </c>
       <c r="B285" s="4" t="s">
-        <v>680</v>
+        <v>643</v>
       </c>
       <c r="C285" s="11" t="s">
-        <v>488</v>
+        <v>451</v>
       </c>
       <c r="D285" s="3">
         <v>417</v>
@@ -61267,13 +61168,13 @@
     </row>
     <row r="286" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A286" s="3" t="s">
-        <v>681</v>
+        <v>644</v>
       </c>
       <c r="B286" s="4" t="s">
-        <v>682</v>
+        <v>645</v>
       </c>
       <c r="C286" s="11" t="s">
-        <v>488</v>
+        <v>451</v>
       </c>
       <c r="D286" s="3">
         <v>4987</v>
@@ -61470,13 +61371,13 @@
     </row>
     <row r="287" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A287" s="3" t="s">
-        <v>683</v>
+        <v>646</v>
       </c>
       <c r="B287" s="4" t="s">
-        <v>684</v>
+        <v>647</v>
       </c>
       <c r="C287" s="11" t="s">
-        <v>488</v>
+        <v>451</v>
       </c>
       <c r="D287" s="3">
         <v>1381</v>
@@ -61673,13 +61574,13 @@
     </row>
     <row r="288" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A288" s="3" t="s">
-        <v>685</v>
+        <v>648</v>
       </c>
       <c r="B288" s="4" t="s">
-        <v>686</v>
+        <v>649</v>
       </c>
       <c r="C288" s="11" t="s">
-        <v>488</v>
+        <v>451</v>
       </c>
       <c r="D288" s="3">
         <v>636</v>
@@ -61876,13 +61777,13 @@
     </row>
     <row r="289" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A289" s="3" t="s">
-        <v>687</v>
+        <v>650</v>
       </c>
       <c r="B289" s="4" t="s">
-        <v>688</v>
+        <v>651</v>
       </c>
       <c r="C289" s="11" t="s">
-        <v>488</v>
+        <v>451</v>
       </c>
       <c r="D289" s="3">
         <v>110</v>
@@ -62079,13 +61980,13 @@
     </row>
     <row r="290" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A290" s="3" t="s">
-        <v>689</v>
+        <v>652</v>
       </c>
       <c r="B290" s="4" t="s">
-        <v>690</v>
+        <v>653</v>
       </c>
       <c r="C290" s="11" t="s">
-        <v>488</v>
+        <v>451</v>
       </c>
       <c r="D290" s="3">
         <v>83</v>
@@ -62282,13 +62183,13 @@
     </row>
     <row r="291" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A291" s="3" t="s">
-        <v>691</v>
+        <v>654</v>
       </c>
       <c r="B291" s="4" t="s">
-        <v>692</v>
+        <v>655</v>
       </c>
       <c r="C291" s="11" t="s">
-        <v>488</v>
+        <v>451</v>
       </c>
       <c r="D291" s="3">
         <v>221</v>
@@ -62485,13 +62386,13 @@
     </row>
     <row r="292" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A292" s="3" t="s">
-        <v>693</v>
+        <v>656</v>
       </c>
       <c r="B292" s="4" t="s">
-        <v>694</v>
+        <v>657</v>
       </c>
       <c r="C292" s="11" t="s">
-        <v>488</v>
+        <v>451</v>
       </c>
       <c r="D292" s="3">
         <v>594</v>
@@ -62688,13 +62589,13 @@
     </row>
     <row r="293" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A293" s="3" t="s">
-        <v>695</v>
+        <v>658</v>
       </c>
       <c r="B293" s="4" t="s">
-        <v>696</v>
+        <v>659</v>
       </c>
       <c r="C293" s="11" t="s">
-        <v>488</v>
+        <v>451</v>
       </c>
       <c r="D293" s="3">
         <v>41</v>
@@ -62891,13 +62792,13 @@
     </row>
     <row r="294" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A294" s="3" t="s">
-        <v>697</v>
+        <v>660</v>
       </c>
       <c r="B294" s="4" t="s">
-        <v>698</v>
+        <v>661</v>
       </c>
       <c r="C294" s="11" t="s">
-        <v>488</v>
+        <v>451</v>
       </c>
       <c r="D294" s="3">
         <v>371</v>
@@ -63094,13 +62995,13 @@
     </row>
     <row r="295" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A295" s="3" t="s">
-        <v>699</v>
+        <v>662</v>
       </c>
       <c r="B295" s="4" t="s">
-        <v>700</v>
+        <v>663</v>
       </c>
       <c r="C295" s="11" t="s">
-        <v>488</v>
+        <v>451</v>
       </c>
       <c r="D295" s="3">
         <v>178</v>
@@ -63297,13 +63198,13 @@
     </row>
     <row r="296" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A296" s="3" t="s">
-        <v>701</v>
+        <v>664</v>
       </c>
       <c r="B296" s="4" t="s">
-        <v>702</v>
+        <v>665</v>
       </c>
       <c r="C296" s="11" t="s">
-        <v>488</v>
+        <v>451</v>
       </c>
       <c r="D296" s="3">
         <v>185</v>
@@ -63500,13 +63401,13 @@
     </row>
     <row r="297" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A297" s="3" t="s">
-        <v>703</v>
+        <v>666</v>
       </c>
       <c r="B297" s="4" t="s">
-        <v>704</v>
+        <v>667</v>
       </c>
       <c r="C297" s="11" t="s">
-        <v>488</v>
+        <v>451</v>
       </c>
       <c r="D297" s="3">
         <v>558</v>
@@ -63703,13 +63604,13 @@
     </row>
     <row r="298" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A298" s="3" t="s">
-        <v>705</v>
+        <v>668</v>
       </c>
       <c r="B298" s="4" t="s">
-        <v>706</v>
+        <v>669</v>
       </c>
       <c r="C298" s="11" t="s">
-        <v>488</v>
+        <v>451</v>
       </c>
       <c r="D298" s="3">
         <v>6130</v>
@@ -63906,13 +63807,13 @@
     </row>
     <row r="299" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A299" s="3" t="s">
-        <v>707</v>
+        <v>670</v>
       </c>
       <c r="B299" s="4" t="s">
-        <v>708</v>
+        <v>671</v>
       </c>
       <c r="C299" s="11" t="s">
-        <v>709</v>
+        <v>672</v>
       </c>
       <c r="D299" s="3">
         <v>1852</v>
@@ -64109,13 +64010,13 @@
     </row>
     <row r="300" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A300" s="3" t="s">
-        <v>710</v>
+        <v>673</v>
       </c>
       <c r="B300" s="4" t="s">
-        <v>711</v>
+        <v>674</v>
       </c>
       <c r="C300" s="11" t="s">
-        <v>709</v>
+        <v>672</v>
       </c>
       <c r="D300" s="3">
         <v>303</v>
@@ -64312,13 +64213,13 @@
     </row>
     <row r="301" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A301" s="3" t="s">
-        <v>712</v>
+        <v>675</v>
       </c>
       <c r="B301" s="4" t="s">
-        <v>713</v>
+        <v>676</v>
       </c>
       <c r="C301" s="11" t="s">
-        <v>709</v>
+        <v>672</v>
       </c>
       <c r="D301" s="3">
         <v>307</v>
@@ -64515,13 +64416,13 @@
     </row>
     <row r="302" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A302" s="3" t="s">
-        <v>714</v>
+        <v>677</v>
       </c>
       <c r="B302" s="4" t="s">
-        <v>715</v>
+        <v>678</v>
       </c>
       <c r="C302" s="11" t="s">
-        <v>709</v>
+        <v>672</v>
       </c>
       <c r="D302" s="3">
         <v>635</v>
@@ -64718,13 +64619,13 @@
     </row>
     <row r="303" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A303" s="3" t="s">
-        <v>716</v>
+        <v>679</v>
       </c>
       <c r="B303" s="4" t="s">
-        <v>717</v>
+        <v>680</v>
       </c>
       <c r="C303" s="11" t="s">
-        <v>709</v>
+        <v>672</v>
       </c>
       <c r="D303" s="3">
         <v>933</v>
@@ -64921,13 +64822,13 @@
     </row>
     <row r="304" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A304" s="3" t="s">
-        <v>718</v>
+        <v>681</v>
       </c>
       <c r="B304" s="4" t="s">
-        <v>719</v>
+        <v>682</v>
       </c>
       <c r="C304" s="11" t="s">
-        <v>709</v>
+        <v>672</v>
       </c>
       <c r="D304" s="3">
         <v>535</v>
@@ -65124,13 +65025,13 @@
     </row>
     <row r="305" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A305" s="3" t="s">
-        <v>720</v>
+        <v>683</v>
       </c>
       <c r="B305" s="4" t="s">
-        <v>721</v>
+        <v>684</v>
       </c>
       <c r="C305" s="11" t="s">
-        <v>709</v>
+        <v>672</v>
       </c>
       <c r="D305" s="3">
         <v>687</v>
@@ -65327,13 +65228,13 @@
     </row>
     <row r="306" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A306" s="3" t="s">
-        <v>722</v>
+        <v>685</v>
       </c>
       <c r="B306" s="4" t="s">
-        <v>723</v>
+        <v>686</v>
       </c>
       <c r="C306" s="11" t="s">
-        <v>709</v>
+        <v>672</v>
       </c>
       <c r="D306" s="3">
         <v>964</v>
@@ -65530,13 +65431,13 @@
     </row>
     <row r="307" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A307" s="3" t="s">
-        <v>724</v>
+        <v>687</v>
       </c>
       <c r="B307" s="4" t="s">
-        <v>725</v>
+        <v>688</v>
       </c>
       <c r="C307" s="11" t="s">
-        <v>709</v>
+        <v>672</v>
       </c>
       <c r="D307" s="3">
         <v>3166</v>
@@ -65733,13 +65634,13 @@
     </row>
     <row r="308" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A308" s="3" t="s">
-        <v>726</v>
+        <v>689</v>
       </c>
       <c r="B308" s="4" t="s">
-        <v>727</v>
+        <v>690</v>
       </c>
       <c r="C308" s="11" t="s">
-        <v>709</v>
+        <v>672</v>
       </c>
       <c r="D308" s="3">
         <v>1236</v>
@@ -65936,13 +65837,13 @@
     </row>
     <row r="309" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A309" s="3" t="s">
-        <v>728</v>
+        <v>691</v>
       </c>
       <c r="B309" s="4" t="s">
-        <v>729</v>
+        <v>692</v>
       </c>
       <c r="C309" s="11" t="s">
-        <v>709</v>
+        <v>672</v>
       </c>
       <c r="D309" s="3">
         <v>335</v>
@@ -66139,13 +66040,13 @@
     </row>
     <row r="310" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A310" s="3" t="s">
-        <v>730</v>
+        <v>693</v>
       </c>
       <c r="B310" s="4" t="s">
-        <v>731</v>
+        <v>694</v>
       </c>
       <c r="C310" s="11" t="s">
-        <v>709</v>
+        <v>672</v>
       </c>
       <c r="D310" s="3">
         <v>266</v>
@@ -66342,13 +66243,13 @@
     </row>
     <row r="311" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A311" s="3" t="s">
-        <v>732</v>
+        <v>695</v>
       </c>
       <c r="B311" s="4" t="s">
-        <v>733</v>
+        <v>696</v>
       </c>
       <c r="C311" s="11" t="s">
-        <v>709</v>
+        <v>672</v>
       </c>
       <c r="D311" s="3">
         <v>832</v>
@@ -66545,13 +66446,13 @@
     </row>
     <row r="312" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A312" s="3" t="s">
-        <v>734</v>
+        <v>697</v>
       </c>
       <c r="B312" s="4" t="s">
-        <v>735</v>
+        <v>698</v>
       </c>
       <c r="C312" s="11" t="s">
-        <v>709</v>
+        <v>672</v>
       </c>
       <c r="D312" s="3">
         <v>2379</v>
@@ -66748,13 +66649,13 @@
     </row>
     <row r="313" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A313" s="3" t="s">
-        <v>736</v>
+        <v>699</v>
       </c>
       <c r="B313" s="4" t="s">
-        <v>737</v>
+        <v>700</v>
       </c>
       <c r="C313" s="11" t="s">
-        <v>709</v>
+        <v>672</v>
       </c>
       <c r="D313" s="3">
         <v>52</v>
@@ -66951,13 +66852,13 @@
     </row>
     <row r="314" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A314" s="3" t="s">
-        <v>738</v>
+        <v>701</v>
       </c>
       <c r="B314" s="4" t="s">
-        <v>739</v>
+        <v>702</v>
       </c>
       <c r="C314" s="11" t="s">
-        <v>709</v>
+        <v>672</v>
       </c>
       <c r="D314" s="3">
         <v>51</v>
@@ -67154,13 +67055,13 @@
     </row>
     <row r="315" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A315" s="3" t="s">
-        <v>740</v>
+        <v>703</v>
       </c>
       <c r="B315" s="4" t="s">
-        <v>741</v>
+        <v>704</v>
       </c>
       <c r="C315" s="11" t="s">
-        <v>709</v>
+        <v>672</v>
       </c>
       <c r="D315" s="3">
         <v>1528</v>
@@ -67357,13 +67258,13 @@
     </row>
     <row r="316" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A316" s="5" t="s">
-        <v>742</v>
+        <v>705</v>
       </c>
       <c r="B316" s="6" t="s">
-        <v>743</v>
+        <v>706</v>
       </c>
       <c r="C316" s="11" t="s">
-        <v>709</v>
+        <v>672</v>
       </c>
       <c r="D316" s="5">
         <v>76</v>
@@ -67563,895 +67464,460 @@
       <c r="B317" s="39"/>
       <c r="C317" s="40"/>
       <c r="D317" s="41" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E317" s="41" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F317" s="41" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G317" s="41" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="H317" s="41" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="I317" s="41" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="J317" s="41" t="s">
-        <v>744</v>
+        <v>707</v>
       </c>
       <c r="K317" s="41" t="s">
-        <v>744</v>
+        <v>707</v>
       </c>
       <c r="L317" s="41" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="M317" s="41" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="N317" s="41" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="O317" s="41" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="P317" s="41" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="Q317" s="41" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="R317" s="41" t="s">
-        <v>744</v>
+        <v>707</v>
       </c>
       <c r="S317" s="41" t="s">
-        <v>744</v>
+        <v>707</v>
       </c>
       <c r="T317" s="41" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="U317" s="41" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="V317" s="41" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="W317" s="41" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="X317" s="41" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="Y317" s="41" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="Z317" s="41" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AA317" s="41" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AB317" s="41" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="AC317" s="41" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="AD317" s="41" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="AE317" s="41" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="AF317" s="41" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AG317" s="41" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AH317" s="41" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AI317" s="41" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AJ317" s="41" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="AK317" s="41" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="AL317" s="41" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AM317" s="41" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AN317" s="41" t="s">
-        <v>744</v>
+        <v>707</v>
       </c>
       <c r="AO317" s="41" t="s">
-        <v>744</v>
+        <v>707</v>
       </c>
       <c r="AP317" s="41" t="s">
-        <v>744</v>
+        <v>707</v>
       </c>
       <c r="AQ317" s="41" t="s">
-        <v>744</v>
+        <v>707</v>
       </c>
       <c r="AR317" s="41" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="AS317" s="41" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="AT317" s="41" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="AU317" s="41" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="AV317" s="41" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AW317" s="41" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AX317" s="41" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AY317" s="41" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AZ317" s="41" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="BA317" s="41" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="BB317" s="41" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="BC317" s="41" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="BD317" s="41" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="BE317" s="41" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="BF317" s="41" t="s">
-        <v>744</v>
+        <v>707</v>
       </c>
       <c r="BG317" s="41" t="s">
-        <v>744</v>
+        <v>707</v>
       </c>
       <c r="BH317" s="41" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="BI317" s="41" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="BJ317" s="41" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="BK317" s="41" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="BL317" s="41" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="BM317" s="41" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="BN317" s="41" t="s">
-        <v>744</v>
+        <v>707</v>
       </c>
       <c r="BO317" s="41" t="s">
-        <v>744</v>
+        <v>707</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D04541A-611B-463C-9C31-3CC317DDD5D3}">
-  <dimension ref="A1:H26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="13.44140625" customWidth="1"/>
-    <col min="6" max="6" width="8.77734375" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" customWidth="1"/>
-    <col min="8" max="8" width="11.44140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
+    <row r="321" spans="4:67" x14ac:dyDescent="0.3">
+      <c r="D321">
+        <f>SUM(D2:D316)</f>
+        <v>2874169</v>
+      </c>
+      <c r="E321">
+        <f t="shared" ref="E321:BO321" si="0">SUM(E2:E316)</f>
+        <v>2741911</v>
+      </c>
+      <c r="F321">
+        <f t="shared" si="0"/>
+        <v>6084926</v>
+      </c>
+      <c r="G321">
+        <f t="shared" si="0"/>
+        <v>2172441</v>
+      </c>
+      <c r="H321">
+        <f t="shared" si="0"/>
+        <v>2213387</v>
+      </c>
+      <c r="I321">
+        <f t="shared" si="0"/>
+        <v>3073534</v>
+      </c>
+      <c r="J321">
+        <f t="shared" si="0"/>
+        <v>3023897</v>
+      </c>
+      <c r="K321">
+        <f t="shared" si="0"/>
+        <v>2393271</v>
+      </c>
+      <c r="L321">
+        <f t="shared" si="0"/>
+        <v>1540624</v>
+      </c>
+      <c r="M321">
+        <f t="shared" si="0"/>
+        <v>2028787</v>
+      </c>
+      <c r="N321">
+        <f t="shared" si="0"/>
+        <v>1904801</v>
+      </c>
+      <c r="O321">
+        <f t="shared" si="0"/>
+        <v>2710060</v>
+      </c>
+      <c r="P321">
+        <f t="shared" si="0"/>
+        <v>5213341</v>
+      </c>
+      <c r="Q321">
+        <f t="shared" si="0"/>
+        <v>2439566</v>
+      </c>
+      <c r="R321">
+        <f t="shared" si="0"/>
+        <v>2969437</v>
+      </c>
+      <c r="S321">
+        <f t="shared" si="0"/>
+        <v>4878214</v>
+      </c>
+      <c r="T321">
+        <f t="shared" si="0"/>
+        <v>1532878</v>
+      </c>
+      <c r="U321">
+        <f t="shared" si="0"/>
+        <v>2040636</v>
+      </c>
+      <c r="V321">
+        <f t="shared" si="0"/>
+        <v>2414929</v>
+      </c>
+      <c r="W321">
+        <f t="shared" si="0"/>
+        <v>2538250</v>
+      </c>
+      <c r="X321">
+        <f t="shared" si="0"/>
+        <v>2479113</v>
+      </c>
+      <c r="Y321">
+        <f t="shared" si="0"/>
+        <v>2394598</v>
+      </c>
+      <c r="Z321">
+        <f t="shared" si="0"/>
+        <v>1650509</v>
+      </c>
+      <c r="AA321">
+        <f t="shared" si="0"/>
+        <v>1562409</v>
+      </c>
+      <c r="AB321">
+        <f t="shared" si="0"/>
+        <v>878021</v>
+      </c>
+      <c r="AC321">
+        <f t="shared" si="0"/>
+        <v>1326870</v>
+      </c>
+      <c r="AD321">
+        <f t="shared" si="0"/>
+        <v>1151260</v>
+      </c>
+      <c r="AE321">
+        <f t="shared" si="0"/>
+        <v>1254341</v>
+      </c>
+      <c r="AF321">
+        <f t="shared" si="0"/>
+        <v>1167137</v>
+      </c>
+      <c r="AG321">
+        <f t="shared" si="0"/>
+        <v>1462502</v>
+      </c>
+      <c r="AH321">
+        <f t="shared" si="0"/>
+        <v>1555244</v>
+      </c>
+      <c r="AI321">
+        <f t="shared" si="0"/>
+        <v>1031251</v>
+      </c>
+      <c r="AJ321">
+        <f t="shared" si="0"/>
+        <v>2813047</v>
+      </c>
+      <c r="AK321">
+        <f t="shared" si="0"/>
+        <v>2996137</v>
+      </c>
+      <c r="AL321">
+        <f t="shared" si="0"/>
+        <v>2750500</v>
+      </c>
+      <c r="AM321">
+        <f t="shared" si="0"/>
+        <v>6174431</v>
+      </c>
+      <c r="AN321">
+        <f t="shared" si="0"/>
+        <v>2802245</v>
+      </c>
+      <c r="AO321">
+        <f t="shared" si="0"/>
+        <v>3985839</v>
+      </c>
+      <c r="AP321">
+        <f t="shared" si="0"/>
+        <v>2804512</v>
+      </c>
+      <c r="AQ321">
+        <f t="shared" si="0"/>
+        <v>5141505</v>
+      </c>
+      <c r="AR321">
+        <f t="shared" si="0"/>
+        <v>4962783</v>
+      </c>
+      <c r="AS321">
+        <f t="shared" si="0"/>
+        <v>4802318</v>
+      </c>
+      <c r="AT321">
+        <f t="shared" si="0"/>
+        <v>3654292</v>
+      </c>
+      <c r="AU321">
+        <f t="shared" si="0"/>
+        <v>4707371</v>
+      </c>
+      <c r="AV321">
+        <f t="shared" si="0"/>
+        <v>4150196</v>
+      </c>
+      <c r="AW321">
+        <f t="shared" si="0"/>
+        <v>4712711</v>
+      </c>
+      <c r="AX321">
+        <f t="shared" si="0"/>
+        <v>4743384</v>
+      </c>
+      <c r="AY321">
+        <f t="shared" si="0"/>
+        <v>5019285</v>
+      </c>
+      <c r="AZ321">
+        <f t="shared" si="0"/>
+        <v>1273778</v>
+      </c>
+      <c r="BA321">
+        <f t="shared" si="0"/>
+        <v>2326276</v>
+      </c>
+      <c r="BB321">
+        <f t="shared" si="0"/>
+        <v>1557597</v>
+      </c>
+      <c r="BC321">
+        <f t="shared" si="0"/>
+        <v>3267826</v>
+      </c>
+      <c r="BD321">
+        <f t="shared" si="0"/>
+        <v>2070772</v>
+      </c>
+      <c r="BE321">
+        <f t="shared" si="0"/>
+        <v>2618733</v>
+      </c>
+      <c r="BF321">
+        <f t="shared" si="0"/>
+        <v>1727876</v>
+      </c>
+      <c r="BG321">
+        <f t="shared" si="0"/>
+        <v>2008088</v>
+      </c>
+      <c r="BH321">
+        <f t="shared" si="0"/>
+        <v>3433408</v>
+      </c>
+      <c r="BI321">
+        <f t="shared" si="0"/>
+        <v>2408396</v>
+      </c>
+      <c r="BJ321">
+        <f t="shared" si="0"/>
+        <v>2498773</v>
+      </c>
+      <c r="BK321">
+        <f t="shared" si="0"/>
+        <v>916741</v>
+      </c>
+      <c r="BL321">
+        <f t="shared" si="0"/>
+        <v>2420846</v>
+      </c>
+      <c r="BM321">
+        <f t="shared" si="0"/>
+        <v>1841269</v>
+      </c>
+      <c r="BN321">
+        <f t="shared" si="0"/>
+        <v>1139141</v>
+      </c>
+      <c r="BO321">
+        <f t="shared" si="0"/>
+        <v>3856055</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2">
-        <v>89</v>
-      </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
-      <c r="F2">
-        <v>9</v>
-      </c>
-      <c r="G2">
-        <v>3</v>
-      </c>
-      <c r="H2">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3">
-        <v>85</v>
-      </c>
-      <c r="E3">
-        <v>4</v>
-      </c>
-      <c r="F3">
-        <v>9</v>
-      </c>
-      <c r="G3">
-        <v>4</v>
-      </c>
-      <c r="H3">
-        <v>4.05</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4">
-        <v>68</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>7</v>
-      </c>
-      <c r="G4">
-        <v>12</v>
-      </c>
-      <c r="H4">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5">
-        <v>52</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>8</v>
-      </c>
-      <c r="G5">
-        <v>2</v>
-      </c>
-      <c r="H5">
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6">
-        <v>87</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <v>8</v>
-      </c>
-      <c r="G6">
-        <v>3</v>
-      </c>
-      <c r="H6">
-        <v>3.45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7">
-        <v>45</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>4</v>
-      </c>
-      <c r="G7">
-        <v>4</v>
-      </c>
-      <c r="H7">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8">
-        <v>73</v>
-      </c>
-      <c r="E8">
-        <v>7</v>
-      </c>
-      <c r="F8">
-        <v>4</v>
-      </c>
-      <c r="G8">
-        <v>11</v>
-      </c>
-      <c r="H8">
-        <v>2.0499999999999998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9">
-        <v>63</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>3</v>
-      </c>
-      <c r="G9">
-        <v>22</v>
-      </c>
-      <c r="H9">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10">
-        <v>61</v>
-      </c>
-      <c r="E10">
-        <v>6</v>
-      </c>
-      <c r="F10">
-        <v>3</v>
-      </c>
-      <c r="G10">
-        <v>11</v>
-      </c>
-      <c r="H10">
-        <v>1.45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11">
-        <v>51</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>4</v>
-      </c>
-      <c r="G11">
-        <v>24</v>
-      </c>
-      <c r="H11">
-        <v>1.55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12">
-        <v>75</v>
-      </c>
-      <c r="E12">
-        <v>8</v>
-      </c>
-      <c r="F12">
-        <v>4</v>
-      </c>
-      <c r="G12">
-        <v>14</v>
-      </c>
-      <c r="H12">
-        <v>1.8499989999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13">
-        <v>85</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>4</v>
-      </c>
-      <c r="G13">
-        <v>7</v>
-      </c>
-      <c r="H13">
-        <v>1.95</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14">
-        <v>14</v>
-      </c>
-      <c r="E14">
-        <v>40</v>
-      </c>
-      <c r="F14">
-        <v>2</v>
-      </c>
-      <c r="G14">
-        <v>27</v>
-      </c>
-      <c r="H14">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15">
-        <v>43</v>
-      </c>
-      <c r="E15">
-        <v>31</v>
-      </c>
-      <c r="F15">
-        <v>2</v>
-      </c>
-      <c r="G15">
-        <v>29</v>
-      </c>
-      <c r="H15">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16">
-        <v>20</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>8</v>
-      </c>
-      <c r="H16">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17">
-        <v>16</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>2</v>
-      </c>
-      <c r="G17">
-        <v>12</v>
-      </c>
-      <c r="H17">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18">
-        <v>26</v>
-      </c>
-      <c r="E18">
-        <v>7</v>
-      </c>
-      <c r="F18">
-        <v>3</v>
-      </c>
-      <c r="G18">
-        <v>6</v>
-      </c>
-      <c r="H18">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19">
-        <v>18</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>11</v>
-      </c>
-      <c r="H19">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20">
-        <v>18</v>
-      </c>
-      <c r="E20">
-        <v>10</v>
-      </c>
-      <c r="F20">
-        <v>2</v>
-      </c>
-      <c r="G20">
-        <v>16</v>
-      </c>
-      <c r="H20">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21">
-        <v>18</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>2</v>
-      </c>
-      <c r="G21">
-        <v>27</v>
-      </c>
-      <c r="H21">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22">
-        <v>47</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>2</v>
-      </c>
-      <c r="G22">
-        <v>25</v>
-      </c>
-      <c r="H22">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" t="s">
-        <v>33</v>
-      </c>
-      <c r="D23">
-        <v>27</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>26</v>
-      </c>
-      <c r="H23">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>36</v>
-      </c>
-      <c r="B24" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" t="s">
-        <v>33</v>
-      </c>
-      <c r="D24">
-        <v>27</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>29</v>
-      </c>
-      <c r="H24">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>37</v>
-      </c>
-      <c r="B25" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" t="s">
-        <v>33</v>
-      </c>
-      <c r="D25">
-        <v>29</v>
-      </c>
-      <c r="E25">
-        <v>2</v>
-      </c>
-      <c r="F25">
-        <v>2</v>
-      </c>
-      <c r="G25">
-        <v>5</v>
-      </c>
-      <c r="H25">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" t="s">
-        <v>33</v>
-      </c>
-      <c r="D26">
-        <v>58</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>2</v>
-      </c>
-      <c r="G26">
-        <v>29</v>
-      </c>
-      <c r="H26">
-        <v>0.55000000000000004</v>
+    <row r="323" spans="4:67" x14ac:dyDescent="0.3">
+      <c r="D323">
+        <f>MAX(D321:BO321)</f>
+        <v>6174431</v>
       </c>
     </row>
   </sheetData>

--- a/data/dataset_neuroscience_vo.xlsx
+++ b/data/dataset_neuroscience_vo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MDASILVA\MDASILVA\ESEO\INTERSHIP\BDA\BDA_Project\BDAJupiterNotebook\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67B6C9C4-B366-42BC-849E-7B82CDF90211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A674795-82FB-41DB-90B4-0EE6A90B380C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{C829A673-F44C-49DE-8E9A-B2FC9AA259F4}"/>
   </bookViews>
@@ -3297,10 +3297,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{665CECC1-8FBB-4BDB-A4F2-9DF141040273}">
-  <dimension ref="A1:BO323"/>
+  <dimension ref="A1:BO317"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AM321" sqref="AM321"/>
+    <sheetView tabSelected="1" topLeftCell="A317" workbookViewId="0">
+      <selection activeCell="Q328" sqref="Q328"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -67656,270 +67656,6 @@
         <v>707</v>
       </c>
     </row>
-    <row r="321" spans="4:67" x14ac:dyDescent="0.3">
-      <c r="D321">
-        <f>SUM(D2:D316)</f>
-        <v>2874169</v>
-      </c>
-      <c r="E321">
-        <f t="shared" ref="E321:BO321" si="0">SUM(E2:E316)</f>
-        <v>2741911</v>
-      </c>
-      <c r="F321">
-        <f t="shared" si="0"/>
-        <v>6084926</v>
-      </c>
-      <c r="G321">
-        <f t="shared" si="0"/>
-        <v>2172441</v>
-      </c>
-      <c r="H321">
-        <f t="shared" si="0"/>
-        <v>2213387</v>
-      </c>
-      <c r="I321">
-        <f t="shared" si="0"/>
-        <v>3073534</v>
-      </c>
-      <c r="J321">
-        <f t="shared" si="0"/>
-        <v>3023897</v>
-      </c>
-      <c r="K321">
-        <f t="shared" si="0"/>
-        <v>2393271</v>
-      </c>
-      <c r="L321">
-        <f t="shared" si="0"/>
-        <v>1540624</v>
-      </c>
-      <c r="M321">
-        <f t="shared" si="0"/>
-        <v>2028787</v>
-      </c>
-      <c r="N321">
-        <f t="shared" si="0"/>
-        <v>1904801</v>
-      </c>
-      <c r="O321">
-        <f t="shared" si="0"/>
-        <v>2710060</v>
-      </c>
-      <c r="P321">
-        <f t="shared" si="0"/>
-        <v>5213341</v>
-      </c>
-      <c r="Q321">
-        <f t="shared" si="0"/>
-        <v>2439566</v>
-      </c>
-      <c r="R321">
-        <f t="shared" si="0"/>
-        <v>2969437</v>
-      </c>
-      <c r="S321">
-        <f t="shared" si="0"/>
-        <v>4878214</v>
-      </c>
-      <c r="T321">
-        <f t="shared" si="0"/>
-        <v>1532878</v>
-      </c>
-      <c r="U321">
-        <f t="shared" si="0"/>
-        <v>2040636</v>
-      </c>
-      <c r="V321">
-        <f t="shared" si="0"/>
-        <v>2414929</v>
-      </c>
-      <c r="W321">
-        <f t="shared" si="0"/>
-        <v>2538250</v>
-      </c>
-      <c r="X321">
-        <f t="shared" si="0"/>
-        <v>2479113</v>
-      </c>
-      <c r="Y321">
-        <f t="shared" si="0"/>
-        <v>2394598</v>
-      </c>
-      <c r="Z321">
-        <f t="shared" si="0"/>
-        <v>1650509</v>
-      </c>
-      <c r="AA321">
-        <f t="shared" si="0"/>
-        <v>1562409</v>
-      </c>
-      <c r="AB321">
-        <f t="shared" si="0"/>
-        <v>878021</v>
-      </c>
-      <c r="AC321">
-        <f t="shared" si="0"/>
-        <v>1326870</v>
-      </c>
-      <c r="AD321">
-        <f t="shared" si="0"/>
-        <v>1151260</v>
-      </c>
-      <c r="AE321">
-        <f t="shared" si="0"/>
-        <v>1254341</v>
-      </c>
-      <c r="AF321">
-        <f t="shared" si="0"/>
-        <v>1167137</v>
-      </c>
-      <c r="AG321">
-        <f t="shared" si="0"/>
-        <v>1462502</v>
-      </c>
-      <c r="AH321">
-        <f t="shared" si="0"/>
-        <v>1555244</v>
-      </c>
-      <c r="AI321">
-        <f t="shared" si="0"/>
-        <v>1031251</v>
-      </c>
-      <c r="AJ321">
-        <f t="shared" si="0"/>
-        <v>2813047</v>
-      </c>
-      <c r="AK321">
-        <f t="shared" si="0"/>
-        <v>2996137</v>
-      </c>
-      <c r="AL321">
-        <f t="shared" si="0"/>
-        <v>2750500</v>
-      </c>
-      <c r="AM321">
-        <f t="shared" si="0"/>
-        <v>6174431</v>
-      </c>
-      <c r="AN321">
-        <f t="shared" si="0"/>
-        <v>2802245</v>
-      </c>
-      <c r="AO321">
-        <f t="shared" si="0"/>
-        <v>3985839</v>
-      </c>
-      <c r="AP321">
-        <f t="shared" si="0"/>
-        <v>2804512</v>
-      </c>
-      <c r="AQ321">
-        <f t="shared" si="0"/>
-        <v>5141505</v>
-      </c>
-      <c r="AR321">
-        <f t="shared" si="0"/>
-        <v>4962783</v>
-      </c>
-      <c r="AS321">
-        <f t="shared" si="0"/>
-        <v>4802318</v>
-      </c>
-      <c r="AT321">
-        <f t="shared" si="0"/>
-        <v>3654292</v>
-      </c>
-      <c r="AU321">
-        <f t="shared" si="0"/>
-        <v>4707371</v>
-      </c>
-      <c r="AV321">
-        <f t="shared" si="0"/>
-        <v>4150196</v>
-      </c>
-      <c r="AW321">
-        <f t="shared" si="0"/>
-        <v>4712711</v>
-      </c>
-      <c r="AX321">
-        <f t="shared" si="0"/>
-        <v>4743384</v>
-      </c>
-      <c r="AY321">
-        <f t="shared" si="0"/>
-        <v>5019285</v>
-      </c>
-      <c r="AZ321">
-        <f t="shared" si="0"/>
-        <v>1273778</v>
-      </c>
-      <c r="BA321">
-        <f t="shared" si="0"/>
-        <v>2326276</v>
-      </c>
-      <c r="BB321">
-        <f t="shared" si="0"/>
-        <v>1557597</v>
-      </c>
-      <c r="BC321">
-        <f t="shared" si="0"/>
-        <v>3267826</v>
-      </c>
-      <c r="BD321">
-        <f t="shared" si="0"/>
-        <v>2070772</v>
-      </c>
-      <c r="BE321">
-        <f t="shared" si="0"/>
-        <v>2618733</v>
-      </c>
-      <c r="BF321">
-        <f t="shared" si="0"/>
-        <v>1727876</v>
-      </c>
-      <c r="BG321">
-        <f t="shared" si="0"/>
-        <v>2008088</v>
-      </c>
-      <c r="BH321">
-        <f t="shared" si="0"/>
-        <v>3433408</v>
-      </c>
-      <c r="BI321">
-        <f t="shared" si="0"/>
-        <v>2408396</v>
-      </c>
-      <c r="BJ321">
-        <f t="shared" si="0"/>
-        <v>2498773</v>
-      </c>
-      <c r="BK321">
-        <f t="shared" si="0"/>
-        <v>916741</v>
-      </c>
-      <c r="BL321">
-        <f t="shared" si="0"/>
-        <v>2420846</v>
-      </c>
-      <c r="BM321">
-        <f t="shared" si="0"/>
-        <v>1841269</v>
-      </c>
-      <c r="BN321">
-        <f t="shared" si="0"/>
-        <v>1139141</v>
-      </c>
-      <c r="BO321">
-        <f t="shared" si="0"/>
-        <v>3856055</v>
-      </c>
-    </row>
-    <row r="323" spans="4:67" x14ac:dyDescent="0.3">
-      <c r="D323">
-        <f>MAX(D321:BO321)</f>
-        <v>6174431</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
